--- a/Data/Текущий ремонт.xlsx
+++ b/Data/Текущий ремонт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ECH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF42B2A-BF1B-495A-BEED-1ECF05A77213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED70CA5-E826-4E70-8D55-4009C31A6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A798" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+      <selection activeCell="B806" sqref="B806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,7 +2765,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>9</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +2785,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>9</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2801,7 +2805,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>9</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2825,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>9</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2845,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2855,7 +2865,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2885,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2905,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +2925,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2945,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2945,7 +2965,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2963,7 +2985,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2981,7 +3005,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2999,7 +3025,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3045,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3065,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -3053,7 +3085,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3105,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3125,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +3145,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>9</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3165,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>9</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -3143,7 +3185,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>9</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3205,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -3179,7 +3225,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>9</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3245,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>9</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
@@ -3215,7 +3265,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>9</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3285,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>9</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
@@ -3251,7 +3305,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3269,7 +3325,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
@@ -3287,7 +3345,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -3305,7 +3365,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3323,7 +3385,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -3341,7 +3405,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>9</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +3425,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
@@ -3377,7 +3445,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -3395,7 +3465,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
@@ -3413,7 +3485,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>9</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
@@ -3431,7 +3505,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>9</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3525,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>9</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
@@ -3467,7 +3545,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
@@ -3485,7 +3565,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>9</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -3503,7 +3585,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <v>9</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3605,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3625,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>9</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
@@ -3557,7 +3645,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>9</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
@@ -3575,7 +3665,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>9</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
@@ -3593,7 +3685,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>9</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
@@ -3611,7 +3705,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2">
+        <v>9</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
@@ -3629,7 +3725,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2">
+        <v>9</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>42</v>
       </c>
@@ -3647,7 +3745,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -3665,7 +3765,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2">
+        <v>9</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>42</v>
       </c>
@@ -3683,7 +3785,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <v>9</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>42</v>
       </c>
@@ -3701,7 +3805,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2">
+        <v>9</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
       </c>
@@ -3719,7 +3825,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <v>9</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>42</v>
       </c>
@@ -3737,7 +3845,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>9</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>42</v>
       </c>
@@ -3755,7 +3865,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>9</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -3773,7 +3885,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <v>9</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>42</v>
       </c>
@@ -3791,7 +3905,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>42</v>
       </c>
@@ -3809,7 +3925,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>9</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>42</v>
       </c>
@@ -3827,7 +3945,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>9</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>42</v>
       </c>
@@ -3845,7 +3965,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>9</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
@@ -3863,7 +3985,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>9</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>42</v>
       </c>
@@ -3881,7 +4005,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2">
+        <v>9</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>42</v>
       </c>
@@ -3899,7 +4025,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2">
+        <v>9</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>42</v>
       </c>
@@ -3917,7 +4045,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2">
+        <v>9</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
@@ -3935,7 +4065,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2">
+        <v>9</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>42</v>
       </c>
@@ -3953,7 +4085,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2">
+        <v>9</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>42</v>
       </c>
@@ -3971,7 +4105,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2">
+        <v>9</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>42</v>
       </c>
@@ -3989,7 +4125,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2">
+        <v>9</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>42</v>
       </c>
@@ -4007,7 +4145,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>42</v>
       </c>
@@ -4025,7 +4165,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2">
+        <v>9</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
@@ -4043,7 +4185,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2">
+        <v>9</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>42</v>
       </c>
@@ -4061,7 +4205,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2">
+        <v>9</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -4079,7 +4225,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2">
+        <v>9</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>42</v>
       </c>
@@ -4097,7 +4245,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2">
+        <v>9</v>
+      </c>
       <c r="B76" s="3" t="s">
         <v>42</v>
       </c>
@@ -4115,7 +4265,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>9</v>
+      </c>
       <c r="B77" s="3" t="s">
         <v>42</v>
       </c>
@@ -4133,7 +4285,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>9</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>42</v>
       </c>
@@ -4151,7 +4305,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>9</v>
+      </c>
       <c r="B79" s="3" t="s">
         <v>42</v>
       </c>
@@ -4169,7 +4325,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <v>9</v>
+      </c>
       <c r="B80" s="3" t="s">
         <v>42</v>
       </c>
@@ -4187,7 +4345,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2">
+        <v>9</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>42</v>
       </c>
@@ -4205,7 +4365,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2">
+        <v>9</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>42</v>
       </c>
@@ -4223,7 +4385,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2">
+        <v>9</v>
+      </c>
       <c r="B83" s="3" t="s">
         <v>42</v>
       </c>
@@ -4241,7 +4405,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2">
+        <v>9</v>
+      </c>
       <c r="B84" s="3" t="s">
         <v>42</v>
       </c>
@@ -4259,7 +4425,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2">
+        <v>9</v>
+      </c>
       <c r="B85" s="3" t="s">
         <v>42</v>
       </c>
@@ -4277,7 +4445,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2">
+        <v>9</v>
+      </c>
       <c r="B86" s="3" t="s">
         <v>42</v>
       </c>
@@ -4295,7 +4465,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2">
+        <v>9</v>
+      </c>
       <c r="B87" s="3" t="s">
         <v>42</v>
       </c>
@@ -4313,7 +4485,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>9</v>
+      </c>
       <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
@@ -4331,7 +4505,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>9</v>
+      </c>
       <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
@@ -4349,7 +4525,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2">
+        <v>9</v>
+      </c>
       <c r="B90" s="3" t="s">
         <v>42</v>
       </c>
@@ -4367,7 +4545,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>9</v>
+      </c>
       <c r="B91" s="3" t="s">
         <v>42</v>
       </c>
@@ -4385,7 +4565,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <v>9</v>
+      </c>
       <c r="B92" s="3" t="s">
         <v>42</v>
       </c>
@@ -4403,7 +4585,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>9</v>
+      </c>
       <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
@@ -4421,7 +4605,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>9</v>
+      </c>
       <c r="B94" s="3" t="s">
         <v>42</v>
       </c>
@@ -4439,7 +4625,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>9</v>
+      </c>
       <c r="B95" s="3" t="s">
         <v>42</v>
       </c>
@@ -4457,7 +4645,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2">
+        <v>9</v>
+      </c>
       <c r="B96" s="3" t="s">
         <v>100</v>
       </c>
@@ -4475,7 +4665,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>9</v>
+      </c>
       <c r="B97" s="3" t="s">
         <v>100</v>
       </c>
@@ -4493,7 +4685,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>9</v>
+      </c>
       <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
@@ -4511,7 +4705,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>9</v>
+      </c>
       <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
@@ -4529,7 +4725,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2">
+        <v>9</v>
+      </c>
       <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
@@ -4547,7 +4745,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2">
+        <v>9</v>
+      </c>
       <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
@@ -4565,7 +4765,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2">
+        <v>9</v>
+      </c>
       <c r="B102" s="3" t="s">
         <v>100</v>
       </c>
@@ -4583,7 +4785,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2">
+        <v>9</v>
+      </c>
       <c r="B103" s="3" t="s">
         <v>108</v>
       </c>
@@ -4601,7 +4805,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2">
+        <v>9</v>
+      </c>
       <c r="B104" s="3" t="s">
         <v>108</v>
       </c>
@@ -4619,7 +4825,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2">
+        <v>9</v>
+      </c>
       <c r="B105" s="3" t="s">
         <v>108</v>
       </c>
@@ -4637,7 +4845,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2">
+        <v>9</v>
+      </c>
       <c r="B106" s="3" t="s">
         <v>108</v>
       </c>
@@ -4655,7 +4865,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2">
+        <v>9</v>
+      </c>
       <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
@@ -4673,7 +4885,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2">
+        <v>9</v>
+      </c>
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
@@ -4691,7 +4905,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2">
+        <v>9</v>
+      </c>
       <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
@@ -4709,7 +4925,9 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2">
+        <v>9</v>
+      </c>
       <c r="B110" s="3" t="s">
         <v>108</v>
       </c>
@@ -4727,7 +4945,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2">
+        <v>9</v>
+      </c>
       <c r="B111" s="3" t="s">
         <v>108</v>
       </c>
@@ -4745,7 +4965,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+      <c r="A112" s="2">
+        <v>9</v>
+      </c>
       <c r="B112" s="3" t="s">
         <v>108</v>
       </c>
@@ -4763,7 +4985,9 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+      <c r="A113" s="2">
+        <v>9</v>
+      </c>
       <c r="B113" s="3" t="s">
         <v>108</v>
       </c>
@@ -4781,7 +5005,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
+      <c r="A114" s="2">
+        <v>9</v>
+      </c>
       <c r="B114" s="3" t="s">
         <v>108</v>
       </c>
@@ -4799,7 +5025,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
+      <c r="A115" s="2">
+        <v>9</v>
+      </c>
       <c r="B115" s="3" t="s">
         <v>108</v>
       </c>
@@ -4817,7 +5045,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2">
+        <v>9</v>
+      </c>
       <c r="B116" s="3" t="s">
         <v>108</v>
       </c>
@@ -4835,7 +5065,9 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2">
+        <v>9</v>
+      </c>
       <c r="B117" s="3" t="s">
         <v>108</v>
       </c>
@@ -4853,7 +5085,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
+      <c r="A118" s="2">
+        <v>9</v>
+      </c>
       <c r="B118" s="3" t="s">
         <v>108</v>
       </c>
@@ -4871,7 +5105,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
+      <c r="A119" s="2">
+        <v>9</v>
+      </c>
       <c r="B119" s="3" t="s">
         <v>108</v>
       </c>
@@ -4889,7 +5125,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2">
+        <v>9</v>
+      </c>
       <c r="B120" s="3" t="s">
         <v>108</v>
       </c>
@@ -4907,7 +5145,9 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
+      <c r="A121" s="2">
+        <v>9</v>
+      </c>
       <c r="B121" s="3" t="s">
         <v>108</v>
       </c>
@@ -4925,7 +5165,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
+      <c r="A122" s="2">
+        <v>9</v>
+      </c>
       <c r="B122" s="3" t="s">
         <v>108</v>
       </c>
@@ -4943,7 +5185,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
+      <c r="A123" s="2">
+        <v>9</v>
+      </c>
       <c r="B123" s="3" t="s">
         <v>108</v>
       </c>
@@ -4961,7 +5205,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
+      <c r="A124" s="2">
+        <v>10</v>
+      </c>
       <c r="B124" s="3" t="s">
         <v>130</v>
       </c>
@@ -4979,7 +5225,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
+      <c r="A125" s="2">
+        <v>10</v>
+      </c>
       <c r="B125" s="3" t="s">
         <v>130</v>
       </c>
@@ -4997,7 +5245,9 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2">
+        <v>10</v>
+      </c>
       <c r="B126" s="3" t="s">
         <v>130</v>
       </c>
@@ -5015,7 +5265,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
+      <c r="A127" s="2">
+        <v>10</v>
+      </c>
       <c r="B127" s="3" t="s">
         <v>130</v>
       </c>
@@ -5033,7 +5285,9 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
+      <c r="A128" s="2">
+        <v>10</v>
+      </c>
       <c r="B128" s="3" t="s">
         <v>130</v>
       </c>
@@ -5051,7 +5305,9 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
+      <c r="A129" s="2">
+        <v>10</v>
+      </c>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
@@ -5069,7 +5325,9 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
+      <c r="A130" s="2">
+        <v>10</v>
+      </c>
       <c r="B130" s="3" t="s">
         <v>130</v>
       </c>
@@ -5087,7 +5345,9 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
+      <c r="A131" s="2">
+        <v>10</v>
+      </c>
       <c r="B131" s="3" t="s">
         <v>130</v>
       </c>
@@ -5105,7 +5365,9 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
+      <c r="A132" s="2">
+        <v>10</v>
+      </c>
       <c r="B132" s="3" t="s">
         <v>139</v>
       </c>
@@ -5123,7 +5385,9 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
+      <c r="A133" s="2">
+        <v>10</v>
+      </c>
       <c r="B133" s="3" t="s">
         <v>139</v>
       </c>
@@ -5141,7 +5405,9 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
+      <c r="A134" s="2">
+        <v>10</v>
+      </c>
       <c r="B134" s="3" t="s">
         <v>139</v>
       </c>
@@ -5159,7 +5425,9 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
+      <c r="A135" s="2">
+        <v>10</v>
+      </c>
       <c r="B135" s="3" t="s">
         <v>139</v>
       </c>
@@ -5177,7 +5445,9 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
+      <c r="A136" s="2">
+        <v>10</v>
+      </c>
       <c r="B136" s="3" t="s">
         <v>139</v>
       </c>
@@ -5195,7 +5465,9 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
+      <c r="A137" s="2">
+        <v>10</v>
+      </c>
       <c r="B137" s="3" t="s">
         <v>139</v>
       </c>
@@ -5213,7 +5485,9 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
+      <c r="A138" s="2">
+        <v>10</v>
+      </c>
       <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
@@ -5231,7 +5505,9 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
+      <c r="A139" s="2">
+        <v>10</v>
+      </c>
       <c r="B139" s="3" t="s">
         <v>139</v>
       </c>
@@ -5249,7 +5525,9 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
+      <c r="A140" s="2">
+        <v>10</v>
+      </c>
       <c r="B140" s="3" t="s">
         <v>139</v>
       </c>
@@ -5267,7 +5545,9 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
+      <c r="A141" s="2">
+        <v>10</v>
+      </c>
       <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
@@ -5285,7 +5565,9 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
+      <c r="A142" s="2">
+        <v>10</v>
+      </c>
       <c r="B142" s="3" t="s">
         <v>139</v>
       </c>
@@ -5303,7 +5585,9 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
+      <c r="A143" s="2">
+        <v>10</v>
+      </c>
       <c r="B143" s="3" t="s">
         <v>139</v>
       </c>
@@ -5321,7 +5605,9 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
+      <c r="A144" s="2">
+        <v>10</v>
+      </c>
       <c r="B144" s="3" t="s">
         <v>139</v>
       </c>
@@ -5339,7 +5625,9 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
+      <c r="A145" s="2">
+        <v>10</v>
+      </c>
       <c r="B145" s="3" t="s">
         <v>139</v>
       </c>
@@ -5357,7 +5645,9 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
+      <c r="A146" s="2">
+        <v>10</v>
+      </c>
       <c r="B146" s="3" t="s">
         <v>139</v>
       </c>
@@ -5375,7 +5665,9 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
+      <c r="A147" s="2">
+        <v>10</v>
+      </c>
       <c r="B147" s="3" t="s">
         <v>139</v>
       </c>
@@ -5393,7 +5685,9 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
+      <c r="A148" s="2">
+        <v>10</v>
+      </c>
       <c r="B148" s="3" t="s">
         <v>139</v>
       </c>
@@ -5411,7 +5705,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
+      <c r="A149" s="2">
+        <v>10</v>
+      </c>
       <c r="B149" s="3" t="s">
         <v>139</v>
       </c>
@@ -5429,7 +5725,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
+      <c r="A150" s="2">
+        <v>10</v>
+      </c>
       <c r="B150" s="3" t="s">
         <v>139</v>
       </c>
@@ -5447,7 +5745,9 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
+      <c r="A151" s="2">
+        <v>10</v>
+      </c>
       <c r="B151" s="3" t="s">
         <v>139</v>
       </c>
@@ -5465,7 +5765,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
+      <c r="A152" s="2">
+        <v>10</v>
+      </c>
       <c r="B152" s="3" t="s">
         <v>139</v>
       </c>
@@ -5483,7 +5785,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
+      <c r="A153" s="2">
+        <v>10</v>
+      </c>
       <c r="B153" s="3" t="s">
         <v>139</v>
       </c>
@@ -5501,7 +5805,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
+      <c r="A154" s="2">
+        <v>10</v>
+      </c>
       <c r="B154" s="3" t="s">
         <v>139</v>
       </c>
@@ -5519,7 +5825,9 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
+      <c r="A155" s="2">
+        <v>10</v>
+      </c>
       <c r="B155" s="3" t="s">
         <v>139</v>
       </c>
@@ -5537,7 +5845,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
+      <c r="A156" s="2">
+        <v>10</v>
+      </c>
       <c r="B156" s="3" t="s">
         <v>139</v>
       </c>
@@ -5555,7 +5865,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
+      <c r="A157" s="2">
+        <v>10</v>
+      </c>
       <c r="B157" s="3" t="s">
         <v>139</v>
       </c>
@@ -5573,7 +5885,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="2"/>
+      <c r="A158" s="2">
+        <v>10</v>
+      </c>
       <c r="B158" s="3" t="s">
         <v>139</v>
       </c>
@@ -5591,7 +5905,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
+      <c r="A159" s="2">
+        <v>10</v>
+      </c>
       <c r="B159" s="3" t="s">
         <v>139</v>
       </c>
@@ -5609,7 +5925,9 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
+      <c r="A160" s="2">
+        <v>10</v>
+      </c>
       <c r="B160" s="3" t="s">
         <v>139</v>
       </c>
@@ -5627,7 +5945,9 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
+      <c r="A161" s="2">
+        <v>10</v>
+      </c>
       <c r="B161" s="3" t="s">
         <v>139</v>
       </c>
@@ -5645,7 +5965,9 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
+      <c r="A162" s="2">
+        <v>10</v>
+      </c>
       <c r="B162" s="3" t="s">
         <v>139</v>
       </c>
@@ -5663,7 +5985,9 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
+      <c r="A163" s="2">
+        <v>10</v>
+      </c>
       <c r="B163" s="3" t="s">
         <v>139</v>
       </c>
@@ -5681,7 +6005,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
+      <c r="A164" s="2">
+        <v>10</v>
+      </c>
       <c r="B164" s="3" t="s">
         <v>139</v>
       </c>
@@ -5699,7 +6025,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
+      <c r="A165" s="2">
+        <v>10</v>
+      </c>
       <c r="B165" s="3" t="s">
         <v>139</v>
       </c>
@@ -5717,7 +6045,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
+      <c r="A166" s="2">
+        <v>10</v>
+      </c>
       <c r="B166" s="3" t="s">
         <v>139</v>
       </c>
@@ -5735,7 +6065,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
+      <c r="A167" s="2">
+        <v>10</v>
+      </c>
       <c r="B167" s="3" t="s">
         <v>139</v>
       </c>
@@ -5753,7 +6085,9 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
+      <c r="A168" s="2">
+        <v>10</v>
+      </c>
       <c r="B168" s="3" t="s">
         <v>139</v>
       </c>
@@ -5771,7 +6105,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2">
+        <v>10</v>
+      </c>
       <c r="B169" s="3" t="s">
         <v>139</v>
       </c>
@@ -5789,7 +6125,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
+      <c r="A170" s="2">
+        <v>10</v>
+      </c>
       <c r="B170" s="3" t="s">
         <v>139</v>
       </c>
@@ -5807,7 +6145,9 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
+      <c r="A171" s="2">
+        <v>10</v>
+      </c>
       <c r="B171" s="3" t="s">
         <v>139</v>
       </c>
@@ -5825,7 +6165,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
+      <c r="A172" s="2">
+        <v>10</v>
+      </c>
       <c r="B172" s="3" t="s">
         <v>139</v>
       </c>
@@ -5843,7 +6185,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
+      <c r="A173" s="2">
+        <v>10</v>
+      </c>
       <c r="B173" s="3" t="s">
         <v>139</v>
       </c>
@@ -5861,7 +6205,9 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
+      <c r="A174" s="2">
+        <v>10</v>
+      </c>
       <c r="B174" s="3" t="s">
         <v>139</v>
       </c>
@@ -5879,7 +6225,9 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2">
+        <v>10</v>
+      </c>
       <c r="B175" s="3" t="s">
         <v>139</v>
       </c>
@@ -5897,7 +6245,9 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
+      <c r="A176" s="2">
+        <v>10</v>
+      </c>
       <c r="B176" s="3" t="s">
         <v>139</v>
       </c>
@@ -5915,7 +6265,9 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
+      <c r="A177" s="2">
+        <v>10</v>
+      </c>
       <c r="B177" s="3" t="s">
         <v>139</v>
       </c>
@@ -5933,7 +6285,9 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
+      <c r="A178" s="2">
+        <v>10</v>
+      </c>
       <c r="B178" s="3" t="s">
         <v>139</v>
       </c>
@@ -5951,7 +6305,9 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
+      <c r="A179" s="2">
+        <v>10</v>
+      </c>
       <c r="B179" s="3" t="s">
         <v>139</v>
       </c>
@@ -5969,7 +6325,9 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
+      <c r="A180" s="2">
+        <v>10</v>
+      </c>
       <c r="B180" s="3" t="s">
         <v>188</v>
       </c>
@@ -5987,7 +6345,9 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="2"/>
+      <c r="A181" s="2">
+        <v>10</v>
+      </c>
       <c r="B181" s="3" t="s">
         <v>188</v>
       </c>
@@ -6005,7 +6365,9 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
+      <c r="A182" s="2">
+        <v>10</v>
+      </c>
       <c r="B182" s="3" t="s">
         <v>188</v>
       </c>
@@ -6023,7 +6385,9 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
+      <c r="A183" s="2">
+        <v>10</v>
+      </c>
       <c r="B183" s="3" t="s">
         <v>188</v>
       </c>
@@ -6041,7 +6405,9 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
+      <c r="A184" s="2">
+        <v>10</v>
+      </c>
       <c r="B184" s="3" t="s">
         <v>188</v>
       </c>
@@ -6059,7 +6425,9 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
+      <c r="A185" s="2">
+        <v>10</v>
+      </c>
       <c r="B185" s="3" t="s">
         <v>188</v>
       </c>
@@ -6077,7 +6445,9 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
+      <c r="A186" s="2">
+        <v>10</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>193</v>
       </c>
@@ -6095,7 +6465,9 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
+      <c r="A187" s="2">
+        <v>10</v>
+      </c>
       <c r="B187" s="3" t="s">
         <v>193</v>
       </c>
@@ -6113,7 +6485,9 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="2"/>
+      <c r="A188" s="2">
+        <v>10</v>
+      </c>
       <c r="B188" s="3" t="s">
         <v>193</v>
       </c>
@@ -6131,7 +6505,9 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
+      <c r="A189" s="2">
+        <v>10</v>
+      </c>
       <c r="B189" s="3" t="s">
         <v>193</v>
       </c>
@@ -6149,7 +6525,9 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
+      <c r="A190" s="2">
+        <v>10</v>
+      </c>
       <c r="B190" s="3" t="s">
         <v>193</v>
       </c>
@@ -6167,7 +6545,9 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
+      <c r="A191" s="2">
+        <v>10</v>
+      </c>
       <c r="B191" s="3" t="s">
         <v>193</v>
       </c>
@@ -6185,7 +6565,9 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="2"/>
+      <c r="A192" s="2">
+        <v>10</v>
+      </c>
       <c r="B192" s="3" t="s">
         <v>193</v>
       </c>
@@ -6203,7 +6585,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
+      <c r="A193" s="2">
+        <v>10</v>
+      </c>
       <c r="B193" s="3" t="s">
         <v>193</v>
       </c>
@@ -6221,7 +6605,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
+      <c r="A194" s="2">
+        <v>10</v>
+      </c>
       <c r="B194" s="3" t="s">
         <v>193</v>
       </c>
@@ -6239,7 +6625,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
+      <c r="A195" s="2">
+        <v>10</v>
+      </c>
       <c r="B195" s="3" t="s">
         <v>193</v>
       </c>
@@ -6257,7 +6645,9 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
+      <c r="A196" s="2">
+        <v>10</v>
+      </c>
       <c r="B196" s="3" t="s">
         <v>193</v>
       </c>
@@ -6275,7 +6665,9 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
+      <c r="A197" s="2">
+        <v>10</v>
+      </c>
       <c r="B197" s="3" t="s">
         <v>193</v>
       </c>
@@ -6293,7 +6685,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
+      <c r="A198" s="2">
+        <v>10</v>
+      </c>
       <c r="B198" s="3" t="s">
         <v>193</v>
       </c>
@@ -6311,7 +6705,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
+      <c r="A199" s="2">
+        <v>10</v>
+      </c>
       <c r="B199" s="3" t="s">
         <v>193</v>
       </c>
@@ -6329,7 +6725,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
+      <c r="A200" s="2">
+        <v>10</v>
+      </c>
       <c r="B200" s="3" t="s">
         <v>193</v>
       </c>
@@ -6347,7 +6745,9 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
+      <c r="A201" s="2">
+        <v>10</v>
+      </c>
       <c r="B201" s="3" t="s">
         <v>193</v>
       </c>
@@ -6365,7 +6765,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
+      <c r="A202" s="2">
+        <v>10</v>
+      </c>
       <c r="B202" s="3" t="s">
         <v>193</v>
       </c>
@@ -6383,7 +6785,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
+      <c r="A203" s="2">
+        <v>12</v>
+      </c>
       <c r="B203" s="3" t="s">
         <v>211</v>
       </c>
@@ -6401,7 +6805,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
+      <c r="A204" s="2">
+        <v>12</v>
+      </c>
       <c r="B204" s="3" t="s">
         <v>211</v>
       </c>
@@ -6419,7 +6825,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
+      <c r="A205" s="2">
+        <v>12</v>
+      </c>
       <c r="B205" s="3" t="s">
         <v>211</v>
       </c>
@@ -6437,7 +6845,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
+      <c r="A206" s="2">
+        <v>12</v>
+      </c>
       <c r="B206" s="3" t="s">
         <v>215</v>
       </c>
@@ -6455,7 +6865,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
+      <c r="A207" s="2">
+        <v>12</v>
+      </c>
       <c r="B207" s="3" t="s">
         <v>215</v>
       </c>
@@ -6473,7 +6885,9 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
+      <c r="A208" s="2">
+        <v>12</v>
+      </c>
       <c r="B208" s="3" t="s">
         <v>215</v>
       </c>
@@ -6491,7 +6905,9 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
+      <c r="A209" s="2">
+        <v>12</v>
+      </c>
       <c r="B209" s="3" t="s">
         <v>215</v>
       </c>
@@ -6509,7 +6925,9 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
+      <c r="A210" s="2">
+        <v>12</v>
+      </c>
       <c r="B210" s="3" t="s">
         <v>215</v>
       </c>
@@ -6527,7 +6945,9 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
+      <c r="A211" s="2">
+        <v>12</v>
+      </c>
       <c r="B211" s="3" t="s">
         <v>215</v>
       </c>
@@ -6545,7 +6965,9 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
+      <c r="A212" s="2">
+        <v>12</v>
+      </c>
       <c r="B212" s="3" t="s">
         <v>215</v>
       </c>
@@ -6563,7 +6985,9 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
+      <c r="A213" s="2">
+        <v>12</v>
+      </c>
       <c r="B213" s="3" t="s">
         <v>221</v>
       </c>
@@ -6581,7 +7005,9 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
+      <c r="A214" s="2">
+        <v>12</v>
+      </c>
       <c r="B214" s="3" t="s">
         <v>221</v>
       </c>
@@ -6599,7 +7025,9 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2">
+        <v>12</v>
+      </c>
       <c r="B215" s="3" t="s">
         <v>221</v>
       </c>
@@ -6617,7 +7045,9 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
+      <c r="A216" s="2">
+        <v>12</v>
+      </c>
       <c r="B216" s="3" t="s">
         <v>221</v>
       </c>
@@ -6635,7 +7065,9 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2">
+        <v>12</v>
+      </c>
       <c r="B217" s="3" t="s">
         <v>226</v>
       </c>
@@ -6653,7 +7085,9 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
+      <c r="A218" s="2">
+        <v>12</v>
+      </c>
       <c r="B218" s="3" t="s">
         <v>226</v>
       </c>
@@ -6671,7 +7105,9 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2">
+        <v>12</v>
+      </c>
       <c r="B219" s="3" t="s">
         <v>226</v>
       </c>
@@ -6689,7 +7125,9 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2">
+        <v>12</v>
+      </c>
       <c r="B220" s="3" t="s">
         <v>226</v>
       </c>
@@ -6707,7 +7145,9 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
+      <c r="A221" s="2">
+        <v>12</v>
+      </c>
       <c r="B221" s="3" t="s">
         <v>226</v>
       </c>
@@ -6725,7 +7165,9 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2">
+        <v>12</v>
+      </c>
       <c r="B222" s="3" t="s">
         <v>226</v>
       </c>
@@ -6743,7 +7185,9 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2">
+        <v>12</v>
+      </c>
       <c r="B223" s="3" t="s">
         <v>226</v>
       </c>
@@ -6761,7 +7205,9 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
+      <c r="A224" s="2">
+        <v>12</v>
+      </c>
       <c r="B224" s="3" t="s">
         <v>226</v>
       </c>
@@ -6779,7 +7225,9 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
+      <c r="A225" s="2">
+        <v>12</v>
+      </c>
       <c r="B225" s="3" t="s">
         <v>226</v>
       </c>
@@ -6797,7 +7245,9 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
+      <c r="A226" s="2">
+        <v>12</v>
+      </c>
       <c r="B226" s="3" t="s">
         <v>226</v>
       </c>
@@ -6815,7 +7265,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
+      <c r="A227" s="2">
+        <v>12</v>
+      </c>
       <c r="B227" s="3" t="s">
         <v>226</v>
       </c>
@@ -6833,7 +7285,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2">
+        <v>12</v>
+      </c>
       <c r="B228" s="3" t="s">
         <v>226</v>
       </c>
@@ -6851,7 +7305,9 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
+      <c r="A229" s="2">
+        <v>12</v>
+      </c>
       <c r="B229" s="3" t="s">
         <v>226</v>
       </c>
@@ -6869,7 +7325,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
+      <c r="A230" s="2">
+        <v>12</v>
+      </c>
       <c r="B230" s="3" t="s">
         <v>226</v>
       </c>
@@ -6887,7 +7345,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
+      <c r="A231" s="2">
+        <v>12</v>
+      </c>
       <c r="B231" s="3" t="s">
         <v>241</v>
       </c>
@@ -6905,7 +7365,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
+      <c r="A232" s="2">
+        <v>12</v>
+      </c>
       <c r="B232" s="3" t="s">
         <v>241</v>
       </c>
@@ -6923,7 +7385,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2">
+        <v>12</v>
+      </c>
       <c r="B233" s="3" t="s">
         <v>241</v>
       </c>
@@ -6941,7 +7405,9 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
+      <c r="A234" s="2">
+        <v>12</v>
+      </c>
       <c r="B234" s="3" t="s">
         <v>241</v>
       </c>
@@ -6959,7 +7425,9 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
+      <c r="A235" s="2">
+        <v>12</v>
+      </c>
       <c r="B235" s="3" t="s">
         <v>241</v>
       </c>
@@ -6977,7 +7445,9 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
+      <c r="A236" s="2">
+        <v>12</v>
+      </c>
       <c r="B236" s="3" t="s">
         <v>241</v>
       </c>
@@ -6995,7 +7465,9 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
+      <c r="A237" s="2">
+        <v>12</v>
+      </c>
       <c r="B237" s="3" t="s">
         <v>241</v>
       </c>
@@ -7013,7 +7485,9 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2">
+        <v>46</v>
+      </c>
       <c r="B238" s="3" t="s">
         <v>249</v>
       </c>
@@ -7031,7 +7505,9 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
+      <c r="A239" s="2">
+        <v>46</v>
+      </c>
       <c r="B239" s="3" t="s">
         <v>249</v>
       </c>
@@ -7049,7 +7525,9 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2">
+        <v>46</v>
+      </c>
       <c r="B240" s="3" t="s">
         <v>249</v>
       </c>
@@ -7067,7 +7545,9 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
+      <c r="A241" s="2">
+        <v>46</v>
+      </c>
       <c r="B241" s="3" t="s">
         <v>249</v>
       </c>
@@ -7085,7 +7565,9 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="2"/>
+      <c r="A242" s="2">
+        <v>46</v>
+      </c>
       <c r="B242" s="3" t="s">
         <v>249</v>
       </c>
@@ -7103,7 +7585,9 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
+      <c r="A243" s="2">
+        <v>46</v>
+      </c>
       <c r="B243" s="3" t="s">
         <v>249</v>
       </c>
@@ -7121,7 +7605,9 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
+      <c r="A244" s="2">
+        <v>46</v>
+      </c>
       <c r="B244" s="3" t="s">
         <v>249</v>
       </c>
@@ -7139,7 +7625,9 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="2"/>
+      <c r="A245" s="2">
+        <v>46</v>
+      </c>
       <c r="B245" s="3" t="s">
         <v>249</v>
       </c>
@@ -7157,7 +7645,9 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="2"/>
+      <c r="A246" s="2">
+        <v>46</v>
+      </c>
       <c r="B246" s="3" t="s">
         <v>249</v>
       </c>
@@ -7175,7 +7665,9 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="2"/>
+      <c r="A247" s="2">
+        <v>46</v>
+      </c>
       <c r="B247" s="3" t="s">
         <v>249</v>
       </c>
@@ -7193,7 +7685,9 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="2"/>
+      <c r="A248" s="2">
+        <v>46</v>
+      </c>
       <c r="B248" s="3" t="s">
         <v>249</v>
       </c>
@@ -7211,7 +7705,9 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="2"/>
+      <c r="A249" s="2">
+        <v>46</v>
+      </c>
       <c r="B249" s="3" t="s">
         <v>249</v>
       </c>
@@ -7229,7 +7725,9 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
+      <c r="A250" s="2">
+        <v>46</v>
+      </c>
       <c r="B250" s="3" t="s">
         <v>249</v>
       </c>
@@ -7247,7 +7745,9 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="2"/>
+      <c r="A251" s="2">
+        <v>46</v>
+      </c>
       <c r="B251" s="3" t="s">
         <v>249</v>
       </c>
@@ -7265,7 +7765,9 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="2"/>
+      <c r="A252" s="2">
+        <v>46</v>
+      </c>
       <c r="B252" s="3" t="s">
         <v>249</v>
       </c>
@@ -7283,7 +7785,9 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="2"/>
+      <c r="A253" s="2">
+        <v>46</v>
+      </c>
       <c r="B253" s="3" t="s">
         <v>249</v>
       </c>
@@ -7301,7 +7805,9 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="2"/>
+      <c r="A254" s="2">
+        <v>46</v>
+      </c>
       <c r="B254" s="3" t="s">
         <v>249</v>
       </c>
@@ -7319,7 +7825,9 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="2"/>
+      <c r="A255" s="2">
+        <v>46</v>
+      </c>
       <c r="B255" s="3" t="s">
         <v>249</v>
       </c>
@@ -7337,7 +7845,9 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2">
+        <v>46</v>
+      </c>
       <c r="B256" s="3" t="s">
         <v>249</v>
       </c>
@@ -7355,7 +7865,9 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="2"/>
+      <c r="A257" s="2">
+        <v>46</v>
+      </c>
       <c r="B257" s="3" t="s">
         <v>249</v>
       </c>
@@ -7373,7 +7885,9 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2">
+        <v>46</v>
+      </c>
       <c r="B258" s="3" t="s">
         <v>249</v>
       </c>
@@ -7391,7 +7905,9 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="2"/>
+      <c r="A259" s="2">
+        <v>46</v>
+      </c>
       <c r="B259" s="3" t="s">
         <v>270</v>
       </c>
@@ -7409,7 +7925,9 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="2"/>
+      <c r="A260" s="2">
+        <v>46</v>
+      </c>
       <c r="B260" s="3" t="s">
         <v>270</v>
       </c>
@@ -7427,7 +7945,9 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="2"/>
+      <c r="A261" s="2">
+        <v>46</v>
+      </c>
       <c r="B261" s="3" t="s">
         <v>270</v>
       </c>
@@ -7445,7 +7965,9 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="2"/>
+      <c r="A262" s="2">
+        <v>46</v>
+      </c>
       <c r="B262" s="3" t="s">
         <v>270</v>
       </c>
@@ -7463,7 +7985,9 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="2"/>
+      <c r="A263" s="2">
+        <v>46</v>
+      </c>
       <c r="B263" s="3" t="s">
         <v>270</v>
       </c>
@@ -7481,7 +8005,9 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="2"/>
+      <c r="A264" s="2">
+        <v>46</v>
+      </c>
       <c r="B264" s="3" t="s">
         <v>270</v>
       </c>
@@ -7499,7 +8025,9 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="2"/>
+      <c r="A265" s="2">
+        <v>46</v>
+      </c>
       <c r="B265" s="3" t="s">
         <v>270</v>
       </c>
@@ -7517,7 +8045,9 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="2"/>
+      <c r="A266" s="2">
+        <v>46</v>
+      </c>
       <c r="B266" s="3" t="s">
         <v>270</v>
       </c>
@@ -7535,7 +8065,9 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="2"/>
+      <c r="A267" s="2">
+        <v>46</v>
+      </c>
       <c r="B267" s="3" t="s">
         <v>270</v>
       </c>
@@ -7553,7 +8085,9 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="2"/>
+      <c r="A268" s="2">
+        <v>46</v>
+      </c>
       <c r="B268" s="3" t="s">
         <v>270</v>
       </c>
@@ -7571,7 +8105,9 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="2"/>
+      <c r="A269" s="2">
+        <v>46</v>
+      </c>
       <c r="B269" s="3" t="s">
         <v>281</v>
       </c>
@@ -7589,7 +8125,9 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2">
+        <v>46</v>
+      </c>
       <c r="B270" s="3" t="s">
         <v>281</v>
       </c>
@@ -7607,7 +8145,9 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="2"/>
+      <c r="A271" s="2">
+        <v>46</v>
+      </c>
       <c r="B271" s="3" t="s">
         <v>281</v>
       </c>
@@ -7625,7 +8165,9 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="2"/>
+      <c r="A272" s="2">
+        <v>46</v>
+      </c>
       <c r="B272" s="3" t="s">
         <v>281</v>
       </c>
@@ -7643,7 +8185,9 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="2"/>
+      <c r="A273" s="2">
+        <v>46</v>
+      </c>
       <c r="B273" s="3" t="s">
         <v>281</v>
       </c>
@@ -7661,7 +8205,9 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="2"/>
+      <c r="A274" s="2">
+        <v>46</v>
+      </c>
       <c r="B274" s="3" t="s">
         <v>281</v>
       </c>
@@ -7679,7 +8225,9 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="2"/>
+      <c r="A275" s="2">
+        <v>46</v>
+      </c>
       <c r="B275" s="3" t="s">
         <v>281</v>
       </c>
@@ -7697,7 +8245,9 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="2"/>
+      <c r="A276" s="2">
+        <v>46</v>
+      </c>
       <c r="B276" s="3" t="s">
         <v>281</v>
       </c>
@@ -7715,7 +8265,9 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="2"/>
+      <c r="A277" s="2">
+        <v>46</v>
+      </c>
       <c r="B277" s="3" t="s">
         <v>281</v>
       </c>
@@ -7733,7 +8285,9 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="2"/>
+      <c r="A278" s="2">
+        <v>46</v>
+      </c>
       <c r="B278" s="3" t="s">
         <v>281</v>
       </c>
@@ -7751,7 +8305,9 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="2"/>
+      <c r="A279" s="2">
+        <v>46</v>
+      </c>
       <c r="B279" s="3" t="s">
         <v>281</v>
       </c>
@@ -7769,7 +8325,9 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="2"/>
+      <c r="A280" s="2">
+        <v>46</v>
+      </c>
       <c r="B280" s="3" t="s">
         <v>281</v>
       </c>
@@ -7787,7 +8345,9 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="2"/>
+      <c r="A281" s="2">
+        <v>46</v>
+      </c>
       <c r="B281" s="3" t="s">
         <v>281</v>
       </c>
@@ -7805,7 +8365,9 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="2"/>
+      <c r="A282" s="2">
+        <v>46</v>
+      </c>
       <c r="B282" s="3" t="s">
         <v>281</v>
       </c>
@@ -7823,7 +8385,9 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="2"/>
+      <c r="A283" s="2">
+        <v>46</v>
+      </c>
       <c r="B283" s="3" t="s">
         <v>281</v>
       </c>
@@ -7841,7 +8405,9 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="2"/>
+      <c r="A284" s="2">
+        <v>46</v>
+      </c>
       <c r="B284" s="3" t="s">
         <v>281</v>
       </c>
@@ -7859,7 +8425,9 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="2"/>
+      <c r="A285" s="2">
+        <v>46</v>
+      </c>
       <c r="B285" s="3" t="s">
         <v>281</v>
       </c>
@@ -7877,7 +8445,9 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="2"/>
+      <c r="A286" s="2">
+        <v>46</v>
+      </c>
       <c r="B286" s="3" t="s">
         <v>281</v>
       </c>
@@ -7895,7 +8465,9 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2">
+        <v>46</v>
+      </c>
       <c r="B287" s="3" t="s">
         <v>281</v>
       </c>
@@ -7913,7 +8485,9 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="2"/>
+      <c r="A288" s="2">
+        <v>46</v>
+      </c>
       <c r="B288" s="3" t="s">
         <v>300</v>
       </c>
@@ -7931,7 +8505,9 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="2"/>
+      <c r="A289" s="2">
+        <v>46</v>
+      </c>
       <c r="B289" s="3" t="s">
         <v>300</v>
       </c>
@@ -7949,7 +8525,9 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="2"/>
+      <c r="A290" s="2">
+        <v>46</v>
+      </c>
       <c r="B290" s="3" t="s">
         <v>300</v>
       </c>
@@ -7967,7 +8545,9 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="2"/>
+      <c r="A291" s="2">
+        <v>46</v>
+      </c>
       <c r="B291" s="3" t="s">
         <v>300</v>
       </c>
@@ -7985,7 +8565,9 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="2"/>
+      <c r="A292" s="2">
+        <v>46</v>
+      </c>
       <c r="B292" s="3" t="s">
         <v>300</v>
       </c>
@@ -8003,7 +8585,9 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="2"/>
+      <c r="A293" s="2">
+        <v>46</v>
+      </c>
       <c r="B293" s="3" t="s">
         <v>300</v>
       </c>
@@ -8021,7 +8605,9 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="2"/>
+      <c r="A294" s="2">
+        <v>46</v>
+      </c>
       <c r="B294" s="3" t="s">
         <v>300</v>
       </c>
@@ -8039,7 +8625,9 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="2"/>
+      <c r="A295" s="2">
+        <v>46</v>
+      </c>
       <c r="B295" s="3" t="s">
         <v>300</v>
       </c>
@@ -8057,7 +8645,9 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="2"/>
+      <c r="A296" s="2">
+        <v>13</v>
+      </c>
       <c r="B296" s="3" t="s">
         <v>306</v>
       </c>
@@ -8075,7 +8665,9 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="2"/>
+      <c r="A297" s="2">
+        <v>13</v>
+      </c>
       <c r="B297" s="3" t="s">
         <v>306</v>
       </c>
@@ -8093,7 +8685,9 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="2"/>
+      <c r="A298" s="2">
+        <v>13</v>
+      </c>
       <c r="B298" s="3" t="s">
         <v>306</v>
       </c>
@@ -8111,7 +8705,9 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="2"/>
+      <c r="A299" s="2">
+        <v>13</v>
+      </c>
       <c r="B299" s="3" t="s">
         <v>306</v>
       </c>
@@ -8129,7 +8725,9 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="2"/>
+      <c r="A300" s="2">
+        <v>13</v>
+      </c>
       <c r="B300" s="3" t="s">
         <v>306</v>
       </c>
@@ -8147,7 +8745,9 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="2"/>
+      <c r="A301" s="2">
+        <v>13</v>
+      </c>
       <c r="B301" s="3" t="s">
         <v>306</v>
       </c>
@@ -8165,7 +8765,9 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="2"/>
+      <c r="A302" s="2">
+        <v>13</v>
+      </c>
       <c r="B302" s="3" t="s">
         <v>306</v>
       </c>
@@ -8183,7 +8785,9 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="2"/>
+      <c r="A303" s="2">
+        <v>13</v>
+      </c>
       <c r="B303" s="3" t="s">
         <v>306</v>
       </c>
@@ -8201,7 +8805,9 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="2"/>
+      <c r="A304" s="2">
+        <v>13</v>
+      </c>
       <c r="B304" s="3" t="s">
         <v>306</v>
       </c>
@@ -8219,7 +8825,9 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="2"/>
+      <c r="A305" s="2">
+        <v>13</v>
+      </c>
       <c r="B305" s="3" t="s">
         <v>306</v>
       </c>
@@ -8237,7 +8845,9 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="2"/>
+      <c r="A306" s="2">
+        <v>13</v>
+      </c>
       <c r="B306" s="3" t="s">
         <v>316</v>
       </c>
@@ -8255,7 +8865,9 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="2"/>
+      <c r="A307" s="2">
+        <v>13</v>
+      </c>
       <c r="B307" s="3" t="s">
         <v>316</v>
       </c>
@@ -8273,7 +8885,9 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="2"/>
+      <c r="A308" s="2">
+        <v>13</v>
+      </c>
       <c r="B308" s="3" t="s">
         <v>316</v>
       </c>
@@ -8291,7 +8905,9 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="2"/>
+      <c r="A309" s="2">
+        <v>13</v>
+      </c>
       <c r="B309" s="3" t="s">
         <v>316</v>
       </c>
@@ -8309,7 +8925,9 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="2"/>
+      <c r="A310" s="2">
+        <v>13</v>
+      </c>
       <c r="B310" s="3" t="s">
         <v>316</v>
       </c>
@@ -8327,7 +8945,9 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="2"/>
+      <c r="A311" s="2">
+        <v>13</v>
+      </c>
       <c r="B311" s="3" t="s">
         <v>316</v>
       </c>
@@ -8345,7 +8965,9 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="2"/>
+      <c r="A312" s="2">
+        <v>13</v>
+      </c>
       <c r="B312" s="3" t="s">
         <v>316</v>
       </c>
@@ -8363,7 +8985,9 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="2"/>
+      <c r="A313" s="2">
+        <v>13</v>
+      </c>
       <c r="B313" s="3" t="s">
         <v>316</v>
       </c>
@@ -8381,7 +9005,9 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="2"/>
+      <c r="A314" s="2">
+        <v>13</v>
+      </c>
       <c r="B314" s="3" t="s">
         <v>316</v>
       </c>
@@ -8399,7 +9025,9 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="2"/>
+      <c r="A315" s="2">
+        <v>13</v>
+      </c>
       <c r="B315" s="3" t="s">
         <v>316</v>
       </c>
@@ -8417,7 +9045,9 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="2"/>
+      <c r="A316" s="2">
+        <v>13</v>
+      </c>
       <c r="B316" s="3" t="s">
         <v>316</v>
       </c>
@@ -8435,7 +9065,9 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="2"/>
+      <c r="A317" s="2">
+        <v>13</v>
+      </c>
       <c r="B317" s="3" t="s">
         <v>316</v>
       </c>
@@ -8453,7 +9085,9 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="2"/>
+      <c r="A318" s="2">
+        <v>13</v>
+      </c>
       <c r="B318" s="3" t="s">
         <v>316</v>
       </c>
@@ -8471,7 +9105,9 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="2"/>
+      <c r="A319" s="2">
+        <v>13</v>
+      </c>
       <c r="B319" s="3" t="s">
         <v>316</v>
       </c>
@@ -8489,7 +9125,9 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="2"/>
+      <c r="A320" s="2">
+        <v>13</v>
+      </c>
       <c r="B320" s="3" t="s">
         <v>316</v>
       </c>
@@ -8507,7 +9145,9 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="2"/>
+      <c r="A321" s="2">
+        <v>13</v>
+      </c>
       <c r="B321" s="3" t="s">
         <v>316</v>
       </c>
@@ -8525,7 +9165,9 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="2"/>
+      <c r="A322" s="2">
+        <v>13</v>
+      </c>
       <c r="B322" s="3" t="s">
         <v>332</v>
       </c>
@@ -8543,7 +9185,9 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="2"/>
+      <c r="A323" s="2">
+        <v>13</v>
+      </c>
       <c r="B323" s="3" t="s">
         <v>332</v>
       </c>
@@ -8561,7 +9205,9 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="2"/>
+      <c r="A324" s="2">
+        <v>14</v>
+      </c>
       <c r="B324" s="3" t="s">
         <v>334</v>
       </c>
@@ -8579,7 +9225,9 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="2"/>
+      <c r="A325" s="2">
+        <v>14</v>
+      </c>
       <c r="B325" s="3" t="s">
         <v>334</v>
       </c>
@@ -8597,7 +9245,9 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="2"/>
+      <c r="A326" s="2">
+        <v>14</v>
+      </c>
       <c r="B326" s="3" t="s">
         <v>334</v>
       </c>
@@ -8615,7 +9265,9 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="2"/>
+      <c r="A327" s="2">
+        <v>14</v>
+      </c>
       <c r="B327" s="3" t="s">
         <v>334</v>
       </c>
@@ -8633,7 +9285,9 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="2"/>
+      <c r="A328" s="2">
+        <v>14</v>
+      </c>
       <c r="B328" s="3" t="s">
         <v>334</v>
       </c>
@@ -8651,7 +9305,9 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="2"/>
+      <c r="A329" s="2">
+        <v>14</v>
+      </c>
       <c r="B329" s="3" t="s">
         <v>334</v>
       </c>
@@ -8669,7 +9325,9 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="2"/>
+      <c r="A330" s="2">
+        <v>14</v>
+      </c>
       <c r="B330" s="3" t="s">
         <v>334</v>
       </c>
@@ -8687,7 +9345,9 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="2"/>
+      <c r="A331" s="2">
+        <v>14</v>
+      </c>
       <c r="B331" s="3" t="s">
         <v>334</v>
       </c>
@@ -8705,7 +9365,9 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="2"/>
+      <c r="A332" s="2">
+        <v>14</v>
+      </c>
       <c r="B332" s="3" t="s">
         <v>343</v>
       </c>
@@ -8723,7 +9385,9 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="2"/>
+      <c r="A333" s="2">
+        <v>14</v>
+      </c>
       <c r="B333" s="3" t="s">
         <v>343</v>
       </c>
@@ -8741,7 +9405,9 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="2"/>
+      <c r="A334" s="2">
+        <v>14</v>
+      </c>
       <c r="B334" s="3" t="s">
         <v>343</v>
       </c>
@@ -8759,7 +9425,9 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="2"/>
+      <c r="A335" s="2">
+        <v>14</v>
+      </c>
       <c r="B335" s="3" t="s">
         <v>343</v>
       </c>
@@ -8777,7 +9445,9 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="2"/>
+      <c r="A336" s="2">
+        <v>14</v>
+      </c>
       <c r="B336" s="3" t="s">
         <v>343</v>
       </c>
@@ -8795,7 +9465,9 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="2"/>
+      <c r="A337" s="2">
+        <v>14</v>
+      </c>
       <c r="B337" s="3" t="s">
         <v>343</v>
       </c>
@@ -8813,7 +9485,9 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="2"/>
+      <c r="A338" s="2">
+        <v>14</v>
+      </c>
       <c r="B338" s="3" t="s">
         <v>343</v>
       </c>
@@ -8831,7 +9505,9 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="2"/>
+      <c r="A339" s="2">
+        <v>14</v>
+      </c>
       <c r="B339" s="3" t="s">
         <v>343</v>
       </c>
@@ -8849,7 +9525,9 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="2"/>
+      <c r="A340" s="2">
+        <v>14</v>
+      </c>
       <c r="B340" s="3" t="s">
         <v>352</v>
       </c>
@@ -8867,7 +9545,9 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="2"/>
+      <c r="A341" s="2">
+        <v>14</v>
+      </c>
       <c r="B341" s="3" t="s">
         <v>352</v>
       </c>
@@ -8885,7 +9565,9 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="2"/>
+      <c r="A342" s="2">
+        <v>14</v>
+      </c>
       <c r="B342" s="3" t="s">
         <v>355</v>
       </c>
@@ -8903,7 +9585,9 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="2"/>
+      <c r="A343" s="2">
+        <v>14</v>
+      </c>
       <c r="B343" s="3" t="s">
         <v>355</v>
       </c>
@@ -8921,7 +9605,9 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="2"/>
+      <c r="A344" s="2">
+        <v>14</v>
+      </c>
       <c r="B344" s="3" t="s">
         <v>355</v>
       </c>
@@ -8939,7 +9625,9 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="2"/>
+      <c r="A345" s="2">
+        <v>14</v>
+      </c>
       <c r="B345" s="3" t="s">
         <v>355</v>
       </c>
@@ -8957,7 +9645,9 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="2"/>
+      <c r="A346" s="2">
+        <v>14</v>
+      </c>
       <c r="B346" s="3" t="s">
         <v>355</v>
       </c>
@@ -8975,7 +9665,9 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="2"/>
+      <c r="A347" s="2">
+        <v>14</v>
+      </c>
       <c r="B347" s="3" t="s">
         <v>355</v>
       </c>
@@ -8993,7 +9685,9 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
+      <c r="A348" s="2">
+        <v>14</v>
+      </c>
       <c r="B348" s="3" t="s">
         <v>355</v>
       </c>
@@ -9011,7 +9705,9 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
+      <c r="A349" s="2">
+        <v>14</v>
+      </c>
       <c r="B349" s="3" t="s">
         <v>355</v>
       </c>
@@ -9029,7 +9725,9 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="2"/>
+      <c r="A350" s="2">
+        <v>14</v>
+      </c>
       <c r="B350" s="3" t="s">
         <v>355</v>
       </c>
@@ -9047,7 +9745,9 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="2"/>
+      <c r="A351" s="2">
+        <v>14</v>
+      </c>
       <c r="B351" s="3" t="s">
         <v>355</v>
       </c>
@@ -9065,7 +9765,9 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="2"/>
+      <c r="A352" s="2">
+        <v>14</v>
+      </c>
       <c r="B352" s="3" t="s">
         <v>355</v>
       </c>
@@ -9083,7 +9785,9 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="2"/>
+      <c r="A353" s="2">
+        <v>14</v>
+      </c>
       <c r="B353" s="3" t="s">
         <v>355</v>
       </c>
@@ -9101,7 +9805,9 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="2"/>
+      <c r="A354" s="2">
+        <v>15</v>
+      </c>
       <c r="B354" s="3" t="s">
         <v>367</v>
       </c>
@@ -9119,7 +9825,9 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
+      <c r="A355" s="2">
+        <v>15</v>
+      </c>
       <c r="B355" s="3" t="s">
         <v>367</v>
       </c>
@@ -9137,7 +9845,9 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="2"/>
+      <c r="A356" s="2">
+        <v>15</v>
+      </c>
       <c r="B356" s="3" t="s">
         <v>367</v>
       </c>
@@ -9155,7 +9865,9 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="2"/>
+      <c r="A357" s="2">
+        <v>15</v>
+      </c>
       <c r="B357" s="3" t="s">
         <v>367</v>
       </c>
@@ -9173,7 +9885,9 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
+      <c r="A358" s="2">
+        <v>15</v>
+      </c>
       <c r="B358" s="3" t="s">
         <v>367</v>
       </c>
@@ -9191,7 +9905,9 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
+      <c r="A359" s="2">
+        <v>15</v>
+      </c>
       <c r="B359" s="3" t="s">
         <v>367</v>
       </c>
@@ -9209,7 +9925,9 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
+      <c r="A360" s="2">
+        <v>15</v>
+      </c>
       <c r="B360" s="3" t="s">
         <v>367</v>
       </c>
@@ -9227,7 +9945,9 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
+      <c r="A361" s="2">
+        <v>15</v>
+      </c>
       <c r="B361" s="3" t="s">
         <v>367</v>
       </c>
@@ -9245,7 +9965,9 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
+      <c r="A362" s="2">
+        <v>15</v>
+      </c>
       <c r="B362" s="3" t="s">
         <v>367</v>
       </c>
@@ -9263,7 +9985,9 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
+      <c r="A363" s="2">
+        <v>15</v>
+      </c>
       <c r="B363" s="3" t="s">
         <v>367</v>
       </c>
@@ -9281,7 +10005,9 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
+      <c r="A364" s="2">
+        <v>15</v>
+      </c>
       <c r="B364" s="3" t="s">
         <v>367</v>
       </c>
@@ -9299,7 +10025,9 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
+      <c r="A365" s="2">
+        <v>15</v>
+      </c>
       <c r="B365" s="3" t="s">
         <v>380</v>
       </c>
@@ -9317,7 +10045,9 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
+      <c r="A366" s="2">
+        <v>15</v>
+      </c>
       <c r="B366" s="3" t="s">
         <v>380</v>
       </c>
@@ -9335,7 +10065,9 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
+      <c r="A367" s="2">
+        <v>15</v>
+      </c>
       <c r="B367" s="3" t="s">
         <v>380</v>
       </c>
@@ -9353,7 +10085,9 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="2"/>
+      <c r="A368" s="2">
+        <v>15</v>
+      </c>
       <c r="B368" s="3" t="s">
         <v>384</v>
       </c>
@@ -9371,7 +10105,9 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="2"/>
+      <c r="A369" s="2">
+        <v>15</v>
+      </c>
       <c r="B369" s="3" t="s">
         <v>384</v>
       </c>
@@ -9389,7 +10125,9 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="2"/>
+      <c r="A370" s="2">
+        <v>15</v>
+      </c>
       <c r="B370" s="3" t="s">
         <v>384</v>
       </c>
@@ -9407,7 +10145,9 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="2"/>
+      <c r="A371" s="2">
+        <v>15</v>
+      </c>
       <c r="B371" s="3" t="s">
         <v>384</v>
       </c>
@@ -9425,7 +10165,9 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="2"/>
+      <c r="A372" s="2">
+        <v>15</v>
+      </c>
       <c r="B372" s="3" t="s">
         <v>384</v>
       </c>
@@ -9443,7 +10185,9 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="2"/>
+      <c r="A373" s="2">
+        <v>15</v>
+      </c>
       <c r="B373" s="3" t="s">
         <v>384</v>
       </c>
@@ -9461,7 +10205,9 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="2"/>
+      <c r="A374" s="2">
+        <v>15</v>
+      </c>
       <c r="B374" s="3" t="s">
         <v>390</v>
       </c>
@@ -9479,7 +10225,9 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="2"/>
+      <c r="A375" s="2">
+        <v>15</v>
+      </c>
       <c r="B375" s="3" t="s">
         <v>390</v>
       </c>
@@ -9497,7 +10245,9 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="2"/>
+      <c r="A376" s="2">
+        <v>15</v>
+      </c>
       <c r="B376" s="3" t="s">
         <v>390</v>
       </c>
@@ -9515,7 +10265,9 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="2"/>
+      <c r="A377" s="2">
+        <v>15</v>
+      </c>
       <c r="B377" s="3" t="s">
         <v>390</v>
       </c>
@@ -9533,7 +10285,9 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="2"/>
+      <c r="A378" s="2">
+        <v>15</v>
+      </c>
       <c r="B378" s="3" t="s">
         <v>390</v>
       </c>
@@ -9551,7 +10305,9 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="2"/>
+      <c r="A379" s="2">
+        <v>15</v>
+      </c>
       <c r="B379" s="3" t="s">
         <v>390</v>
       </c>
@@ -9569,7 +10325,9 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="2"/>
+      <c r="A380" s="2">
+        <v>15</v>
+      </c>
       <c r="B380" s="3" t="s">
         <v>390</v>
       </c>
@@ -9587,7 +10345,9 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="2"/>
+      <c r="A381" s="2">
+        <v>15</v>
+      </c>
       <c r="B381" s="3" t="s">
         <v>390</v>
       </c>
@@ -9605,7 +10365,9 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="2"/>
+      <c r="A382" s="2">
+        <v>15</v>
+      </c>
       <c r="B382" s="3" t="s">
         <v>390</v>
       </c>
@@ -9623,7 +10385,9 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="2"/>
+      <c r="A383" s="2">
+        <v>15</v>
+      </c>
       <c r="B383" s="3" t="s">
         <v>390</v>
       </c>
@@ -9641,7 +10405,9 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="2"/>
+      <c r="A384" s="2">
+        <v>15</v>
+      </c>
       <c r="B384" s="3" t="s">
         <v>390</v>
       </c>
@@ -9659,7 +10425,9 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="2"/>
+      <c r="A385" s="2">
+        <v>15</v>
+      </c>
       <c r="B385" s="3" t="s">
         <v>390</v>
       </c>
@@ -9677,7 +10445,9 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="2"/>
+      <c r="A386" s="2">
+        <v>15</v>
+      </c>
       <c r="B386" s="3" t="s">
         <v>390</v>
       </c>
@@ -9695,7 +10465,9 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="2"/>
+      <c r="A387" s="2">
+        <v>15</v>
+      </c>
       <c r="B387" s="3" t="s">
         <v>390</v>
       </c>
@@ -9713,7 +10485,9 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="2"/>
+      <c r="A388" s="2">
+        <v>15</v>
+      </c>
       <c r="B388" s="3" t="s">
         <v>390</v>
       </c>
@@ -9731,7 +10505,9 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="2"/>
+      <c r="A389" s="2">
+        <v>15</v>
+      </c>
       <c r="B389" s="3" t="s">
         <v>390</v>
       </c>
@@ -9749,7 +10525,9 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="2"/>
+      <c r="A390" s="2">
+        <v>15</v>
+      </c>
       <c r="B390" s="3" t="s">
         <v>390</v>
       </c>
@@ -9767,7 +10545,9 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="2"/>
+      <c r="A391" s="2">
+        <v>15</v>
+      </c>
       <c r="B391" s="3" t="s">
         <v>390</v>
       </c>
@@ -9785,7 +10565,9 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A392" s="2"/>
+      <c r="A392" s="2">
+        <v>15</v>
+      </c>
       <c r="B392" s="3" t="s">
         <v>390</v>
       </c>
@@ -9803,7 +10585,9 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="2"/>
+      <c r="A393" s="2">
+        <v>47</v>
+      </c>
       <c r="B393" s="3" t="s">
         <v>409</v>
       </c>
@@ -9821,7 +10605,9 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="2"/>
+      <c r="A394" s="2">
+        <v>47</v>
+      </c>
       <c r="B394" s="3" t="s">
         <v>409</v>
       </c>
@@ -9839,7 +10625,9 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="2"/>
+      <c r="A395" s="2">
+        <v>47</v>
+      </c>
       <c r="B395" s="3" t="s">
         <v>409</v>
       </c>
@@ -9857,7 +10645,9 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A396" s="2"/>
+      <c r="A396" s="2">
+        <v>47</v>
+      </c>
       <c r="B396" s="3" t="s">
         <v>409</v>
       </c>
@@ -9875,7 +10665,9 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" s="2"/>
+      <c r="A397" s="2">
+        <v>47</v>
+      </c>
       <c r="B397" s="3" t="s">
         <v>409</v>
       </c>
@@ -9893,7 +10685,9 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="2"/>
+      <c r="A398" s="2">
+        <v>47</v>
+      </c>
       <c r="B398" s="3" t="s">
         <v>409</v>
       </c>
@@ -9911,7 +10705,9 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A399" s="2"/>
+      <c r="A399" s="2">
+        <v>47</v>
+      </c>
       <c r="B399" s="3" t="s">
         <v>409</v>
       </c>
@@ -9929,7 +10725,9 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
+      <c r="A400" s="2">
+        <v>47</v>
+      </c>
       <c r="B400" s="3" t="s">
         <v>409</v>
       </c>
@@ -9947,7 +10745,9 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
+      <c r="A401" s="2">
+        <v>47</v>
+      </c>
       <c r="B401" s="3" t="s">
         <v>409</v>
       </c>
@@ -9965,7 +10765,9 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
+      <c r="A402" s="2">
+        <v>47</v>
+      </c>
       <c r="B402" s="3" t="s">
         <v>409</v>
       </c>
@@ -9983,7 +10785,9 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
+      <c r="A403" s="2">
+        <v>47</v>
+      </c>
       <c r="B403" s="3" t="s">
         <v>409</v>
       </c>
@@ -10001,7 +10805,9 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
+      <c r="A404" s="2">
+        <v>47</v>
+      </c>
       <c r="B404" s="3" t="s">
         <v>409</v>
       </c>
@@ -10019,7 +10825,9 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
+      <c r="A405" s="2">
+        <v>47</v>
+      </c>
       <c r="B405" s="3" t="s">
         <v>409</v>
       </c>
@@ -10037,7 +10845,9 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
+      <c r="A406" s="2">
+        <v>47</v>
+      </c>
       <c r="B406" s="3" t="s">
         <v>409</v>
       </c>
@@ -10055,7 +10865,9 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
+      <c r="A407" s="2">
+        <v>47</v>
+      </c>
       <c r="B407" s="3" t="s">
         <v>409</v>
       </c>
@@ -10073,7 +10885,9 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="2"/>
+      <c r="A408" s="2">
+        <v>47</v>
+      </c>
       <c r="B408" s="3" t="s">
         <v>409</v>
       </c>
@@ -10091,7 +10905,9 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="2"/>
+      <c r="A409" s="2">
+        <v>47</v>
+      </c>
       <c r="B409" s="3" t="s">
         <v>409</v>
       </c>
@@ -10109,7 +10925,9 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="2"/>
+      <c r="A410" s="2">
+        <v>47</v>
+      </c>
       <c r="B410" s="3" t="s">
         <v>409</v>
       </c>
@@ -10127,7 +10945,9 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="2"/>
+      <c r="A411" s="2">
+        <v>47</v>
+      </c>
       <c r="B411" s="3" t="s">
         <v>409</v>
       </c>
@@ -10145,7 +10965,9 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="2"/>
+      <c r="A412" s="2">
+        <v>47</v>
+      </c>
       <c r="B412" s="3" t="s">
         <v>409</v>
       </c>
@@ -10163,7 +10985,9 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A413" s="2"/>
+      <c r="A413" s="2">
+        <v>47</v>
+      </c>
       <c r="B413" s="3" t="s">
         <v>409</v>
       </c>
@@ -10181,7 +11005,9 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="2"/>
+      <c r="A414" s="2">
+        <v>47</v>
+      </c>
       <c r="B414" s="3" t="s">
         <v>409</v>
       </c>
@@ -10199,7 +11025,9 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A415" s="2"/>
+      <c r="A415" s="2">
+        <v>47</v>
+      </c>
       <c r="B415" s="3" t="s">
         <v>409</v>
       </c>
@@ -10217,7 +11045,9 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A416" s="2"/>
+      <c r="A416" s="2">
+        <v>47</v>
+      </c>
       <c r="B416" s="3" t="s">
         <v>429</v>
       </c>
@@ -10235,7 +11065,9 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A417" s="2"/>
+      <c r="A417" s="2">
+        <v>47</v>
+      </c>
       <c r="B417" s="3" t="s">
         <v>429</v>
       </c>
@@ -10253,7 +11085,9 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A418" s="2"/>
+      <c r="A418" s="2">
+        <v>47</v>
+      </c>
       <c r="B418" s="3" t="s">
         <v>429</v>
       </c>
@@ -10271,7 +11105,9 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A419" s="2"/>
+      <c r="A419" s="2">
+        <v>47</v>
+      </c>
       <c r="B419" s="3" t="s">
         <v>429</v>
       </c>
@@ -10289,7 +11125,9 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A420" s="2"/>
+      <c r="A420" s="2">
+        <v>47</v>
+      </c>
       <c r="B420" s="3" t="s">
         <v>429</v>
       </c>
@@ -10307,7 +11145,9 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A421" s="2"/>
+      <c r="A421" s="2">
+        <v>47</v>
+      </c>
       <c r="B421" s="3" t="s">
         <v>429</v>
       </c>
@@ -10325,7 +11165,9 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A422" s="2"/>
+      <c r="A422" s="2">
+        <v>47</v>
+      </c>
       <c r="B422" s="3" t="s">
         <v>429</v>
       </c>
@@ -10343,7 +11185,9 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A423" s="2"/>
+      <c r="A423" s="2">
+        <v>47</v>
+      </c>
       <c r="B423" s="3" t="s">
         <v>429</v>
       </c>
@@ -10361,7 +11205,9 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A424" s="2"/>
+      <c r="A424" s="2">
+        <v>47</v>
+      </c>
       <c r="B424" s="3" t="s">
         <v>429</v>
       </c>
@@ -10379,7 +11225,9 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A425" s="2"/>
+      <c r="A425" s="2">
+        <v>47</v>
+      </c>
       <c r="B425" s="3" t="s">
         <v>429</v>
       </c>
@@ -10397,7 +11245,9 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="2"/>
+      <c r="A426" s="2">
+        <v>47</v>
+      </c>
       <c r="B426" s="3" t="s">
         <v>429</v>
       </c>
@@ -10415,7 +11265,9 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A427" s="2"/>
+      <c r="A427" s="2">
+        <v>47</v>
+      </c>
       <c r="B427" s="3" t="s">
         <v>429</v>
       </c>
@@ -10433,7 +11285,9 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A428" s="2"/>
+      <c r="A428" s="2">
+        <v>47</v>
+      </c>
       <c r="B428" s="3" t="s">
         <v>429</v>
       </c>
@@ -10451,7 +11305,9 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A429" s="2"/>
+      <c r="A429" s="2">
+        <v>47</v>
+      </c>
       <c r="B429" s="3" t="s">
         <v>429</v>
       </c>
@@ -10469,7 +11325,9 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="2"/>
+      <c r="A430" s="2">
+        <v>47</v>
+      </c>
       <c r="B430" s="3" t="s">
         <v>429</v>
       </c>
@@ -10487,7 +11345,9 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A431" s="2"/>
+      <c r="A431" s="2">
+        <v>47</v>
+      </c>
       <c r="B431" s="3" t="s">
         <v>429</v>
       </c>
@@ -10505,7 +11365,9 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="2"/>
+      <c r="A432" s="2">
+        <v>47</v>
+      </c>
       <c r="B432" s="3" t="s">
         <v>429</v>
       </c>
@@ -10523,7 +11385,9 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="2"/>
+      <c r="A433" s="2">
+        <v>47</v>
+      </c>
       <c r="B433" s="3" t="s">
         <v>429</v>
       </c>
@@ -10541,7 +11405,9 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A434" s="2"/>
+      <c r="A434" s="2">
+        <v>47</v>
+      </c>
       <c r="B434" s="3" t="s">
         <v>429</v>
       </c>
@@ -10559,7 +11425,9 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A435" s="2"/>
+      <c r="A435" s="2">
+        <v>47</v>
+      </c>
       <c r="B435" s="3" t="s">
         <v>429</v>
       </c>
@@ -10577,7 +11445,9 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A436" s="2"/>
+      <c r="A436" s="2">
+        <v>47</v>
+      </c>
       <c r="B436" s="3" t="s">
         <v>429</v>
       </c>
@@ -10595,7 +11465,9 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="2"/>
+      <c r="A437" s="2">
+        <v>47</v>
+      </c>
       <c r="B437" s="3" t="s">
         <v>429</v>
       </c>
@@ -10613,7 +11485,9 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="2"/>
+      <c r="A438" s="2">
+        <v>47</v>
+      </c>
       <c r="B438" s="3" t="s">
         <v>429</v>
       </c>
@@ -10631,7 +11505,9 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A439" s="2"/>
+      <c r="A439" s="2">
+        <v>47</v>
+      </c>
       <c r="B439" s="3" t="s">
         <v>429</v>
       </c>
@@ -10649,7 +11525,9 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A440" s="2"/>
+      <c r="A440" s="2">
+        <v>47</v>
+      </c>
       <c r="B440" s="3" t="s">
         <v>429</v>
       </c>
@@ -10667,7 +11545,9 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="2"/>
+      <c r="A441" s="2">
+        <v>47</v>
+      </c>
       <c r="B441" s="3" t="s">
         <v>429</v>
       </c>
@@ -10685,7 +11565,9 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A442" s="2"/>
+      <c r="A442" s="2">
+        <v>47</v>
+      </c>
       <c r="B442" s="3" t="s">
         <v>429</v>
       </c>
@@ -10703,7 +11585,9 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="2"/>
+      <c r="A443" s="2">
+        <v>47</v>
+      </c>
       <c r="B443" s="3" t="s">
         <v>429</v>
       </c>
@@ -10721,7 +11605,9 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A444" s="2"/>
+      <c r="A444" s="2">
+        <v>47</v>
+      </c>
       <c r="B444" s="3" t="s">
         <v>429</v>
       </c>
@@ -10739,7 +11625,9 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A445" s="2"/>
+      <c r="A445" s="2">
+        <v>47</v>
+      </c>
       <c r="B445" s="3" t="s">
         <v>429</v>
       </c>
@@ -10757,7 +11645,9 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="2"/>
+      <c r="A446" s="2">
+        <v>47</v>
+      </c>
       <c r="B446" s="3" t="s">
         <v>429</v>
       </c>
@@ -10775,7 +11665,9 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A447" s="2"/>
+      <c r="A447" s="2">
+        <v>47</v>
+      </c>
       <c r="B447" s="3" t="s">
         <v>429</v>
       </c>
@@ -10793,7 +11685,9 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A448" s="2"/>
+      <c r="A448" s="2">
+        <v>9</v>
+      </c>
       <c r="B448" s="3" t="s">
         <v>5</v>
       </c>
@@ -10811,7 +11705,9 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A449" s="2"/>
+      <c r="A449" s="2">
+        <v>9</v>
+      </c>
       <c r="B449" s="3" t="s">
         <v>5</v>
       </c>
@@ -10829,7 +11725,9 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A450" s="2"/>
+      <c r="A450" s="2">
+        <v>9</v>
+      </c>
       <c r="B450" s="3" t="s">
         <v>5</v>
       </c>
@@ -10847,7 +11745,9 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A451" s="2"/>
+      <c r="A451" s="2">
+        <v>9</v>
+      </c>
       <c r="B451" s="3" t="s">
         <v>5</v>
       </c>
@@ -10865,7 +11765,9 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="2"/>
+      <c r="A452" s="2">
+        <v>9</v>
+      </c>
       <c r="B452" s="3" t="s">
         <v>5</v>
       </c>
@@ -10883,7 +11785,9 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A453" s="2"/>
+      <c r="A453" s="2">
+        <v>9</v>
+      </c>
       <c r="B453" s="3" t="s">
         <v>5</v>
       </c>
@@ -10901,7 +11805,9 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A454" s="2"/>
+      <c r="A454" s="2">
+        <v>9</v>
+      </c>
       <c r="B454" s="3" t="s">
         <v>5</v>
       </c>
@@ -10919,7 +11825,9 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A455" s="2"/>
+      <c r="A455" s="2">
+        <v>9</v>
+      </c>
       <c r="B455" s="3" t="s">
         <v>5</v>
       </c>
@@ -10937,7 +11845,9 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A456" s="2"/>
+      <c r="A456" s="2">
+        <v>9</v>
+      </c>
       <c r="B456" s="3" t="s">
         <v>5</v>
       </c>
@@ -10955,7 +11865,9 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A457" s="2"/>
+      <c r="A457" s="2">
+        <v>9</v>
+      </c>
       <c r="B457" s="3" t="s">
         <v>5</v>
       </c>
@@ -10973,7 +11885,9 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A458" s="2"/>
+      <c r="A458" s="2">
+        <v>9</v>
+      </c>
       <c r="B458" s="3" t="s">
         <v>5</v>
       </c>
@@ -10991,7 +11905,9 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A459" s="2"/>
+      <c r="A459" s="2">
+        <v>9</v>
+      </c>
       <c r="B459" s="3" t="s">
         <v>11</v>
       </c>
@@ -11009,7 +11925,9 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A460" s="2"/>
+      <c r="A460" s="2">
+        <v>9</v>
+      </c>
       <c r="B460" s="3" t="s">
         <v>11</v>
       </c>
@@ -11027,7 +11945,9 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A461" s="2"/>
+      <c r="A461" s="2">
+        <v>9</v>
+      </c>
       <c r="B461" s="3" t="s">
         <v>11</v>
       </c>
@@ -11045,7 +11965,9 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A462" s="2"/>
+      <c r="A462" s="2">
+        <v>9</v>
+      </c>
       <c r="B462" s="3" t="s">
         <v>11</v>
       </c>
@@ -11063,7 +11985,9 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A463" s="2"/>
+      <c r="A463" s="2">
+        <v>9</v>
+      </c>
       <c r="B463" s="3" t="s">
         <v>11</v>
       </c>
@@ -11081,7 +12005,9 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A464" s="2"/>
+      <c r="A464" s="2">
+        <v>9</v>
+      </c>
       <c r="B464" s="3" t="s">
         <v>11</v>
       </c>
@@ -11099,7 +12025,9 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A465" s="2"/>
+      <c r="A465" s="2">
+        <v>9</v>
+      </c>
       <c r="B465" s="3" t="s">
         <v>11</v>
       </c>
@@ -11117,7 +12045,9 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A466" s="2"/>
+      <c r="A466" s="2">
+        <v>9</v>
+      </c>
       <c r="B466" s="3" t="s">
         <v>11</v>
       </c>
@@ -11135,7 +12065,9 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A467" s="2"/>
+      <c r="A467" s="2">
+        <v>9</v>
+      </c>
       <c r="B467" s="3" t="s">
         <v>11</v>
       </c>
@@ -11153,7 +12085,9 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A468" s="2"/>
+      <c r="A468" s="2">
+        <v>9</v>
+      </c>
       <c r="B468" s="3" t="s">
         <v>11</v>
       </c>
@@ -11171,7 +12105,9 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A469" s="2"/>
+      <c r="A469" s="2">
+        <v>9</v>
+      </c>
       <c r="B469" s="3" t="s">
         <v>27</v>
       </c>
@@ -11189,7 +12125,9 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A470" s="2"/>
+      <c r="A470" s="2">
+        <v>9</v>
+      </c>
       <c r="B470" s="3" t="s">
         <v>27</v>
       </c>
@@ -11207,7 +12145,9 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A471" s="2"/>
+      <c r="A471" s="2">
+        <v>9</v>
+      </c>
       <c r="B471" s="3" t="s">
         <v>27</v>
       </c>
@@ -11225,7 +12165,9 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A472" s="2"/>
+      <c r="A472" s="2">
+        <v>9</v>
+      </c>
       <c r="B472" s="3" t="s">
         <v>27</v>
       </c>
@@ -11243,7 +12185,9 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A473" s="2"/>
+      <c r="A473" s="2">
+        <v>9</v>
+      </c>
       <c r="B473" s="3" t="s">
         <v>42</v>
       </c>
@@ -11261,7 +12205,9 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A474" s="2"/>
+      <c r="A474" s="2">
+        <v>9</v>
+      </c>
       <c r="B474" s="3" t="s">
         <v>42</v>
       </c>
@@ -11279,7 +12225,9 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A475" s="2"/>
+      <c r="A475" s="2">
+        <v>9</v>
+      </c>
       <c r="B475" s="3" t="s">
         <v>42</v>
       </c>
@@ -11297,7 +12245,9 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A476" s="2"/>
+      <c r="A476" s="2">
+        <v>9</v>
+      </c>
       <c r="B476" s="3" t="s">
         <v>42</v>
       </c>
@@ -11315,7 +12265,9 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A477" s="2"/>
+      <c r="A477" s="2">
+        <v>9</v>
+      </c>
       <c r="B477" s="3" t="s">
         <v>42</v>
       </c>
@@ -11333,7 +12285,9 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A478" s="2"/>
+      <c r="A478" s="2">
+        <v>9</v>
+      </c>
       <c r="B478" s="3" t="s">
         <v>42</v>
       </c>
@@ -11351,7 +12305,9 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A479" s="2"/>
+      <c r="A479" s="2">
+        <v>9</v>
+      </c>
       <c r="B479" s="3" t="s">
         <v>42</v>
       </c>
@@ -11369,7 +12325,9 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A480" s="2"/>
+      <c r="A480" s="2">
+        <v>9</v>
+      </c>
       <c r="B480" s="3" t="s">
         <v>42</v>
       </c>
@@ -11387,7 +12345,9 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A481" s="2"/>
+      <c r="A481" s="2">
+        <v>9</v>
+      </c>
       <c r="B481" s="3" t="s">
         <v>42</v>
       </c>
@@ -11405,7 +12365,9 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A482" s="2"/>
+      <c r="A482" s="2">
+        <v>9</v>
+      </c>
       <c r="B482" s="3" t="s">
         <v>42</v>
       </c>
@@ -11423,7 +12385,9 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A483" s="2"/>
+      <c r="A483" s="2">
+        <v>9</v>
+      </c>
       <c r="B483" s="3" t="s">
         <v>42</v>
       </c>
@@ -11441,7 +12405,9 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A484" s="2"/>
+      <c r="A484" s="2">
+        <v>9</v>
+      </c>
       <c r="B484" s="3" t="s">
         <v>42</v>
       </c>
@@ -11459,7 +12425,9 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A485" s="2"/>
+      <c r="A485" s="2">
+        <v>9</v>
+      </c>
       <c r="B485" s="3" t="s">
         <v>42</v>
       </c>
@@ -11477,7 +12445,9 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A486" s="2"/>
+      <c r="A486" s="2">
+        <v>9</v>
+      </c>
       <c r="B486" s="3" t="s">
         <v>42</v>
       </c>
@@ -11495,7 +12465,9 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A487" s="2"/>
+      <c r="A487" s="2">
+        <v>9</v>
+      </c>
       <c r="B487" s="3" t="s">
         <v>42</v>
       </c>
@@ -11513,7 +12485,9 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A488" s="2"/>
+      <c r="A488" s="2">
+        <v>9</v>
+      </c>
       <c r="B488" s="3" t="s">
         <v>42</v>
       </c>
@@ -11531,7 +12505,9 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A489" s="2"/>
+      <c r="A489" s="2">
+        <v>9</v>
+      </c>
       <c r="B489" s="3" t="s">
         <v>42</v>
       </c>
@@ -11549,7 +12525,9 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A490" s="2"/>
+      <c r="A490" s="2">
+        <v>9</v>
+      </c>
       <c r="B490" s="3" t="s">
         <v>100</v>
       </c>
@@ -11567,7 +12545,9 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A491" s="2"/>
+      <c r="A491" s="2">
+        <v>9</v>
+      </c>
       <c r="B491" s="3" t="s">
         <v>100</v>
       </c>
@@ -11585,7 +12565,9 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A492" s="2"/>
+      <c r="A492" s="2">
+        <v>9</v>
+      </c>
       <c r="B492" s="3" t="s">
         <v>100</v>
       </c>
@@ -11603,7 +12585,9 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A493" s="2"/>
+      <c r="A493" s="2">
+        <v>9</v>
+      </c>
       <c r="B493" s="3" t="s">
         <v>100</v>
       </c>
@@ -11621,7 +12605,9 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A494" s="2"/>
+      <c r="A494" s="2">
+        <v>9</v>
+      </c>
       <c r="B494" s="3" t="s">
         <v>100</v>
       </c>
@@ -11639,7 +12625,9 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A495" s="2"/>
+      <c r="A495" s="2">
+        <v>9</v>
+      </c>
       <c r="B495" s="3" t="s">
         <v>100</v>
       </c>
@@ -11657,7 +12645,9 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A496" s="2"/>
+      <c r="A496" s="2">
+        <v>9</v>
+      </c>
       <c r="B496" s="3" t="s">
         <v>100</v>
       </c>
@@ -11675,7 +12665,9 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A497" s="2"/>
+      <c r="A497" s="2">
+        <v>9</v>
+      </c>
       <c r="B497" s="3" t="s">
         <v>108</v>
       </c>
@@ -11693,7 +12685,9 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A498" s="2"/>
+      <c r="A498" s="2">
+        <v>9</v>
+      </c>
       <c r="B498" s="3" t="s">
         <v>108</v>
       </c>
@@ -11711,7 +12705,9 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A499" s="2"/>
+      <c r="A499" s="2">
+        <v>9</v>
+      </c>
       <c r="B499" s="3" t="s">
         <v>108</v>
       </c>
@@ -11729,7 +12725,9 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A500" s="2"/>
+      <c r="A500" s="2">
+        <v>9</v>
+      </c>
       <c r="B500" s="3" t="s">
         <v>108</v>
       </c>
@@ -11747,7 +12745,9 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A501" s="2"/>
+      <c r="A501" s="2">
+        <v>9</v>
+      </c>
       <c r="B501" s="3" t="s">
         <v>108</v>
       </c>
@@ -11765,7 +12765,9 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A502" s="2"/>
+      <c r="A502" s="2">
+        <v>9</v>
+      </c>
       <c r="B502" s="3" t="s">
         <v>108</v>
       </c>
@@ -11783,7 +12785,9 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A503" s="2"/>
+      <c r="A503" s="2">
+        <v>9</v>
+      </c>
       <c r="B503" s="3" t="s">
         <v>108</v>
       </c>
@@ -11801,7 +12805,9 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A504" s="2"/>
+      <c r="A504" s="2">
+        <v>9</v>
+      </c>
       <c r="B504" s="3" t="s">
         <v>108</v>
       </c>
@@ -11819,7 +12825,9 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A505" s="2"/>
+      <c r="A505" s="2">
+        <v>9</v>
+      </c>
       <c r="B505" s="3" t="s">
         <v>108</v>
       </c>
@@ -11837,7 +12845,9 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A506" s="2"/>
+      <c r="A506" s="2">
+        <v>9</v>
+      </c>
       <c r="B506" s="3" t="s">
         <v>108</v>
       </c>
@@ -11855,7 +12865,9 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A507" s="2"/>
+      <c r="A507" s="2">
+        <v>9</v>
+      </c>
       <c r="B507" s="3" t="s">
         <v>108</v>
       </c>
@@ -11873,7 +12885,9 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A508" s="2"/>
+      <c r="A508" s="2">
+        <v>9</v>
+      </c>
       <c r="B508" s="3" t="s">
         <v>108</v>
       </c>
@@ -11891,7 +12905,9 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A509" s="2"/>
+      <c r="A509" s="2">
+        <v>9</v>
+      </c>
       <c r="B509" s="3" t="s">
         <v>108</v>
       </c>
@@ -11909,7 +12925,9 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A510" s="2"/>
+      <c r="A510" s="2">
+        <v>9</v>
+      </c>
       <c r="B510" s="3" t="s">
         <v>108</v>
       </c>
@@ -11927,7 +12945,9 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A511" s="2"/>
+      <c r="A511" s="2">
+        <v>9</v>
+      </c>
       <c r="B511" s="3" t="s">
         <v>108</v>
       </c>
@@ -11945,7 +12965,9 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A512" s="2"/>
+      <c r="A512" s="2">
+        <v>9</v>
+      </c>
       <c r="B512" s="3" t="s">
         <v>108</v>
       </c>
@@ -11963,7 +12985,9 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A513" s="2"/>
+      <c r="A513" s="2">
+        <v>10</v>
+      </c>
       <c r="B513" s="3" t="s">
         <v>130</v>
       </c>
@@ -11981,7 +13005,9 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A514" s="2"/>
+      <c r="A514" s="2">
+        <v>10</v>
+      </c>
       <c r="B514" s="3" t="s">
         <v>130</v>
       </c>
@@ -11999,7 +13025,9 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A515" s="2"/>
+      <c r="A515" s="2">
+        <v>10</v>
+      </c>
       <c r="B515" s="3" t="s">
         <v>130</v>
       </c>
@@ -12017,7 +13045,9 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A516" s="2"/>
+      <c r="A516" s="2">
+        <v>10</v>
+      </c>
       <c r="B516" s="3" t="s">
         <v>130</v>
       </c>
@@ -12035,7 +13065,9 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A517" s="2"/>
+      <c r="A517" s="2">
+        <v>10</v>
+      </c>
       <c r="B517" s="3" t="s">
         <v>130</v>
       </c>
@@ -12053,7 +13085,9 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A518" s="2"/>
+      <c r="A518" s="2">
+        <v>10</v>
+      </c>
       <c r="B518" s="3" t="s">
         <v>130</v>
       </c>
@@ -12071,7 +13105,9 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A519" s="2"/>
+      <c r="A519" s="2">
+        <v>10</v>
+      </c>
       <c r="B519" s="3" t="s">
         <v>130</v>
       </c>
@@ -12089,7 +13125,9 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A520" s="2"/>
+      <c r="A520" s="2">
+        <v>10</v>
+      </c>
       <c r="B520" s="3" t="s">
         <v>130</v>
       </c>
@@ -12107,7 +13145,9 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A521" s="2"/>
+      <c r="A521" s="2">
+        <v>10</v>
+      </c>
       <c r="B521" s="3" t="s">
         <v>130</v>
       </c>
@@ -12125,7 +13165,9 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A522" s="2"/>
+      <c r="A522" s="2">
+        <v>10</v>
+      </c>
       <c r="B522" s="3" t="s">
         <v>130</v>
       </c>
@@ -12143,7 +13185,9 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A523" s="2"/>
+      <c r="A523" s="2">
+        <v>10</v>
+      </c>
       <c r="B523" s="3" t="s">
         <v>139</v>
       </c>
@@ -12161,7 +13205,9 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A524" s="2"/>
+      <c r="A524" s="2">
+        <v>10</v>
+      </c>
       <c r="B524" s="3" t="s">
         <v>139</v>
       </c>
@@ -12179,7 +13225,9 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A525" s="2"/>
+      <c r="A525" s="2">
+        <v>10</v>
+      </c>
       <c r="B525" s="3" t="s">
         <v>139</v>
       </c>
@@ -12197,7 +13245,9 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A526" s="2"/>
+      <c r="A526" s="2">
+        <v>10</v>
+      </c>
       <c r="B526" s="3" t="s">
         <v>139</v>
       </c>
@@ -12215,7 +13265,9 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A527" s="2"/>
+      <c r="A527" s="2">
+        <v>10</v>
+      </c>
       <c r="B527" s="3" t="s">
         <v>139</v>
       </c>
@@ -12233,7 +13285,9 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A528" s="2"/>
+      <c r="A528" s="2">
+        <v>10</v>
+      </c>
       <c r="B528" s="3" t="s">
         <v>139</v>
       </c>
@@ -12251,7 +13305,9 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A529" s="2"/>
+      <c r="A529" s="2">
+        <v>10</v>
+      </c>
       <c r="B529" s="3" t="s">
         <v>139</v>
       </c>
@@ -12269,7 +13325,9 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A530" s="2"/>
+      <c r="A530" s="2">
+        <v>10</v>
+      </c>
       <c r="B530" s="3" t="s">
         <v>139</v>
       </c>
@@ -12287,7 +13345,9 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A531" s="2"/>
+      <c r="A531" s="2">
+        <v>10</v>
+      </c>
       <c r="B531" s="3" t="s">
         <v>139</v>
       </c>
@@ -12305,7 +13365,9 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A532" s="2"/>
+      <c r="A532" s="2">
+        <v>10</v>
+      </c>
       <c r="B532" s="3" t="s">
         <v>139</v>
       </c>
@@ -12323,7 +13385,9 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A533" s="2"/>
+      <c r="A533" s="2">
+        <v>10</v>
+      </c>
       <c r="B533" s="3" t="s">
         <v>139</v>
       </c>
@@ -12341,7 +13405,9 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A534" s="2"/>
+      <c r="A534" s="2">
+        <v>10</v>
+      </c>
       <c r="B534" s="3" t="s">
         <v>139</v>
       </c>
@@ -12359,7 +13425,9 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A535" s="2"/>
+      <c r="A535" s="2">
+        <v>10</v>
+      </c>
       <c r="B535" s="3" t="s">
         <v>139</v>
       </c>
@@ -12377,7 +13445,9 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A536" s="2"/>
+      <c r="A536" s="2">
+        <v>10</v>
+      </c>
       <c r="B536" s="3" t="s">
         <v>139</v>
       </c>
@@ -12395,7 +13465,9 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A537" s="2"/>
+      <c r="A537" s="2">
+        <v>10</v>
+      </c>
       <c r="B537" s="3" t="s">
         <v>139</v>
       </c>
@@ -12413,7 +13485,9 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A538" s="2"/>
+      <c r="A538" s="2">
+        <v>10</v>
+      </c>
       <c r="B538" s="3" t="s">
         <v>139</v>
       </c>
@@ -12431,7 +13505,9 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A539" s="2"/>
+      <c r="A539" s="2">
+        <v>10</v>
+      </c>
       <c r="B539" s="3" t="s">
         <v>139</v>
       </c>
@@ -12449,7 +13525,9 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A540" s="2"/>
+      <c r="A540" s="2">
+        <v>10</v>
+      </c>
       <c r="B540" s="3" t="s">
         <v>139</v>
       </c>
@@ -12467,7 +13545,9 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A541" s="2"/>
+      <c r="A541" s="2">
+        <v>10</v>
+      </c>
       <c r="B541" s="3" t="s">
         <v>139</v>
       </c>
@@ -12485,7 +13565,9 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A542" s="2"/>
+      <c r="A542" s="2">
+        <v>10</v>
+      </c>
       <c r="B542" s="3" t="s">
         <v>139</v>
       </c>
@@ -12503,7 +13585,9 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A543" s="2"/>
+      <c r="A543" s="2">
+        <v>10</v>
+      </c>
       <c r="B543" s="3" t="s">
         <v>139</v>
       </c>
@@ -12521,7 +13605,9 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A544" s="2"/>
+      <c r="A544" s="2">
+        <v>10</v>
+      </c>
       <c r="B544" s="3" t="s">
         <v>139</v>
       </c>
@@ -12539,7 +13625,9 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A545" s="2"/>
+      <c r="A545" s="2">
+        <v>10</v>
+      </c>
       <c r="B545" s="3" t="s">
         <v>139</v>
       </c>
@@ -12557,7 +13645,9 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A546" s="2"/>
+      <c r="A546" s="2">
+        <v>10</v>
+      </c>
       <c r="B546" s="3" t="s">
         <v>139</v>
       </c>
@@ -12575,7 +13665,9 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A547" s="2"/>
+      <c r="A547" s="2">
+        <v>10</v>
+      </c>
       <c r="B547" s="3" t="s">
         <v>139</v>
       </c>
@@ -12593,7 +13685,9 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A548" s="2"/>
+      <c r="A548" s="2">
+        <v>10</v>
+      </c>
       <c r="B548" s="3" t="s">
         <v>139</v>
       </c>
@@ -12611,7 +13705,9 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A549" s="2"/>
+      <c r="A549" s="2">
+        <v>10</v>
+      </c>
       <c r="B549" s="3" t="s">
         <v>139</v>
       </c>
@@ -12629,7 +13725,9 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A550" s="2"/>
+      <c r="A550" s="2">
+        <v>10</v>
+      </c>
       <c r="B550" s="3" t="s">
         <v>139</v>
       </c>
@@ -12647,7 +13745,9 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A551" s="2"/>
+      <c r="A551" s="2">
+        <v>10</v>
+      </c>
       <c r="B551" s="3" t="s">
         <v>139</v>
       </c>
@@ -12665,7 +13765,9 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A552" s="2"/>
+      <c r="A552" s="2">
+        <v>10</v>
+      </c>
       <c r="B552" s="3" t="s">
         <v>139</v>
       </c>
@@ -12683,7 +13785,9 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A553" s="2"/>
+      <c r="A553" s="2">
+        <v>10</v>
+      </c>
       <c r="B553" s="3" t="s">
         <v>139</v>
       </c>
@@ -12701,7 +13805,9 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A554" s="2"/>
+      <c r="A554" s="2">
+        <v>10</v>
+      </c>
       <c r="B554" s="3" t="s">
         <v>139</v>
       </c>
@@ -12719,7 +13825,9 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A555" s="2"/>
+      <c r="A555" s="2">
+        <v>10</v>
+      </c>
       <c r="B555" s="3" t="s">
         <v>139</v>
       </c>
@@ -12737,7 +13845,9 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A556" s="2"/>
+      <c r="A556" s="2">
+        <v>10</v>
+      </c>
       <c r="B556" s="3" t="s">
         <v>139</v>
       </c>
@@ -12755,7 +13865,9 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A557" s="2"/>
+      <c r="A557" s="2">
+        <v>10</v>
+      </c>
       <c r="B557" s="3" t="s">
         <v>139</v>
       </c>
@@ -12773,7 +13885,9 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A558" s="2"/>
+      <c r="A558" s="2">
+        <v>10</v>
+      </c>
       <c r="B558" s="3" t="s">
         <v>139</v>
       </c>
@@ -12791,7 +13905,9 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A559" s="2"/>
+      <c r="A559" s="2">
+        <v>10</v>
+      </c>
       <c r="B559" s="3" t="s">
         <v>139</v>
       </c>
@@ -12809,7 +13925,9 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A560" s="2"/>
+      <c r="A560" s="2">
+        <v>10</v>
+      </c>
       <c r="B560" s="3" t="s">
         <v>139</v>
       </c>
@@ -12827,7 +13945,9 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A561" s="2"/>
+      <c r="A561" s="2">
+        <v>10</v>
+      </c>
       <c r="B561" s="3" t="s">
         <v>139</v>
       </c>
@@ -12845,7 +13965,9 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A562" s="2"/>
+      <c r="A562" s="2">
+        <v>10</v>
+      </c>
       <c r="B562" s="3" t="s">
         <v>139</v>
       </c>
@@ -12863,7 +13985,9 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A563" s="2"/>
+      <c r="A563" s="2">
+        <v>10</v>
+      </c>
       <c r="B563" s="3" t="s">
         <v>139</v>
       </c>
@@ -12881,7 +14005,9 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A564" s="2"/>
+      <c r="A564" s="2">
+        <v>10</v>
+      </c>
       <c r="B564" s="3" t="s">
         <v>139</v>
       </c>
@@ -12899,7 +14025,9 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A565" s="2"/>
+      <c r="A565" s="2">
+        <v>10</v>
+      </c>
       <c r="B565" s="3" t="s">
         <v>139</v>
       </c>
@@ -12917,7 +14045,9 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A566" s="2"/>
+      <c r="A566" s="2">
+        <v>10</v>
+      </c>
       <c r="B566" s="3" t="s">
         <v>139</v>
       </c>
@@ -12935,7 +14065,9 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A567" s="2"/>
+      <c r="A567" s="2">
+        <v>10</v>
+      </c>
       <c r="B567" s="3" t="s">
         <v>139</v>
       </c>
@@ -12953,7 +14085,9 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A568" s="2"/>
+      <c r="A568" s="2">
+        <v>10</v>
+      </c>
       <c r="B568" s="3" t="s">
         <v>188</v>
       </c>
@@ -12971,7 +14105,9 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A569" s="2"/>
+      <c r="A569" s="2">
+        <v>10</v>
+      </c>
       <c r="B569" s="3" t="s">
         <v>188</v>
       </c>
@@ -12989,7 +14125,9 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A570" s="2"/>
+      <c r="A570" s="2">
+        <v>10</v>
+      </c>
       <c r="B570" s="3" t="s">
         <v>188</v>
       </c>
@@ -13007,7 +14145,9 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A571" s="2"/>
+      <c r="A571" s="2">
+        <v>10</v>
+      </c>
       <c r="B571" s="3" t="s">
         <v>188</v>
       </c>
@@ -13025,7 +14165,9 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A572" s="2"/>
+      <c r="A572" s="2">
+        <v>10</v>
+      </c>
       <c r="B572" s="3" t="s">
         <v>188</v>
       </c>
@@ -13043,7 +14185,9 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A573" s="2"/>
+      <c r="A573" s="2">
+        <v>10</v>
+      </c>
       <c r="B573" s="3" t="s">
         <v>193</v>
       </c>
@@ -13061,7 +14205,9 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A574" s="2"/>
+      <c r="A574" s="2">
+        <v>10</v>
+      </c>
       <c r="B574" s="3" t="s">
         <v>193</v>
       </c>
@@ -13079,7 +14225,9 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A575" s="2"/>
+      <c r="A575" s="2">
+        <v>10</v>
+      </c>
       <c r="B575" s="3" t="s">
         <v>193</v>
       </c>
@@ -13097,7 +14245,9 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A576" s="2"/>
+      <c r="A576" s="2">
+        <v>10</v>
+      </c>
       <c r="B576" s="3" t="s">
         <v>193</v>
       </c>
@@ -13115,7 +14265,9 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A577" s="2"/>
+      <c r="A577" s="2">
+        <v>10</v>
+      </c>
       <c r="B577" s="3" t="s">
         <v>193</v>
       </c>
@@ -13133,7 +14285,9 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A578" s="2"/>
+      <c r="A578" s="2">
+        <v>10</v>
+      </c>
       <c r="B578" s="3" t="s">
         <v>193</v>
       </c>
@@ -13151,7 +14305,9 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A579" s="2"/>
+      <c r="A579" s="2">
+        <v>10</v>
+      </c>
       <c r="B579" s="3" t="s">
         <v>193</v>
       </c>
@@ -13169,7 +14325,9 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A580" s="2"/>
+      <c r="A580" s="2">
+        <v>10</v>
+      </c>
       <c r="B580" s="3" t="s">
         <v>193</v>
       </c>
@@ -13187,7 +14345,9 @@
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A581" s="2"/>
+      <c r="A581" s="2">
+        <v>10</v>
+      </c>
       <c r="B581" s="3" t="s">
         <v>193</v>
       </c>
@@ -13205,7 +14365,9 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A582" s="2"/>
+      <c r="A582" s="2">
+        <v>10</v>
+      </c>
       <c r="B582" s="3" t="s">
         <v>193</v>
       </c>
@@ -13223,7 +14385,9 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A583" s="2"/>
+      <c r="A583" s="2">
+        <v>10</v>
+      </c>
       <c r="B583" s="3" t="s">
         <v>193</v>
       </c>
@@ -13241,7 +14405,9 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A584" s="2"/>
+      <c r="A584" s="2">
+        <v>10</v>
+      </c>
       <c r="B584" s="3" t="s">
         <v>193</v>
       </c>
@@ -13259,7 +14425,9 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A585" s="2"/>
+      <c r="A585" s="2">
+        <v>10</v>
+      </c>
       <c r="B585" s="3" t="s">
         <v>193</v>
       </c>
@@ -13277,7 +14445,9 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A586" s="2"/>
+      <c r="A586" s="2">
+        <v>10</v>
+      </c>
       <c r="B586" s="3" t="s">
         <v>193</v>
       </c>
@@ -13295,7 +14465,9 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A587" s="2"/>
+      <c r="A587" s="2">
+        <v>10</v>
+      </c>
       <c r="B587" s="3" t="s">
         <v>193</v>
       </c>
@@ -13313,7 +14485,9 @@
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A588" s="2"/>
+      <c r="A588" s="2">
+        <v>10</v>
+      </c>
       <c r="B588" s="3" t="s">
         <v>193</v>
       </c>
@@ -13331,7 +14505,9 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A589" s="2"/>
+      <c r="A589" s="2">
+        <v>10</v>
+      </c>
       <c r="B589" s="3" t="s">
         <v>193</v>
       </c>
@@ -13349,7 +14525,9 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A590" s="2"/>
+      <c r="A590" s="2">
+        <v>12</v>
+      </c>
       <c r="B590" s="3" t="s">
         <v>211</v>
       </c>
@@ -13367,7 +14545,9 @@
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A591" s="2"/>
+      <c r="A591" s="2">
+        <v>12</v>
+      </c>
       <c r="B591" s="3" t="s">
         <v>211</v>
       </c>
@@ -13385,7 +14565,9 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A592" s="2"/>
+      <c r="A592" s="2">
+        <v>12</v>
+      </c>
       <c r="B592" s="3" t="s">
         <v>211</v>
       </c>
@@ -13403,7 +14585,9 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A593" s="2"/>
+      <c r="A593" s="2">
+        <v>12</v>
+      </c>
       <c r="B593" s="3" t="s">
         <v>211</v>
       </c>
@@ -13421,7 +14605,9 @@
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A594" s="2"/>
+      <c r="A594" s="2">
+        <v>12</v>
+      </c>
       <c r="B594" s="3" t="s">
         <v>211</v>
       </c>
@@ -13439,7 +14625,9 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A595" s="2"/>
+      <c r="A595" s="2">
+        <v>12</v>
+      </c>
       <c r="B595" s="3" t="s">
         <v>211</v>
       </c>
@@ -13457,7 +14645,9 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A596" s="2"/>
+      <c r="A596" s="2">
+        <v>12</v>
+      </c>
       <c r="B596" s="3" t="s">
         <v>211</v>
       </c>
@@ -13475,7 +14665,9 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A597" s="2"/>
+      <c r="A597" s="2">
+        <v>12</v>
+      </c>
       <c r="B597" s="3" t="s">
         <v>211</v>
       </c>
@@ -13493,7 +14685,9 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A598" s="2"/>
+      <c r="A598" s="2">
+        <v>12</v>
+      </c>
       <c r="B598" s="3" t="s">
         <v>211</v>
       </c>
@@ -13511,7 +14705,9 @@
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A599" s="2"/>
+      <c r="A599" s="2">
+        <v>12</v>
+      </c>
       <c r="B599" s="3" t="s">
         <v>211</v>
       </c>
@@ -13529,7 +14725,9 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A600" s="2"/>
+      <c r="A600" s="2">
+        <v>12</v>
+      </c>
       <c r="B600" s="3" t="s">
         <v>211</v>
       </c>
@@ -13547,7 +14745,9 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A601" s="2"/>
+      <c r="A601" s="2">
+        <v>12</v>
+      </c>
       <c r="B601" s="3" t="s">
         <v>215</v>
       </c>
@@ -13565,7 +14765,9 @@
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A602" s="2"/>
+      <c r="A602" s="2">
+        <v>12</v>
+      </c>
       <c r="B602" s="3" t="s">
         <v>215</v>
       </c>
@@ -13583,7 +14785,9 @@
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A603" s="2"/>
+      <c r="A603" s="2">
+        <v>12</v>
+      </c>
       <c r="B603" s="3" t="s">
         <v>215</v>
       </c>
@@ -13601,7 +14805,9 @@
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A604" s="2"/>
+      <c r="A604" s="2">
+        <v>12</v>
+      </c>
       <c r="B604" s="3" t="s">
         <v>215</v>
       </c>
@@ -13619,7 +14825,9 @@
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A605" s="2"/>
+      <c r="A605" s="2">
+        <v>12</v>
+      </c>
       <c r="B605" s="3" t="s">
         <v>221</v>
       </c>
@@ -13637,7 +14845,9 @@
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A606" s="2"/>
+      <c r="A606" s="2">
+        <v>12</v>
+      </c>
       <c r="B606" s="3" t="s">
         <v>221</v>
       </c>
@@ -13655,7 +14865,9 @@
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A607" s="2"/>
+      <c r="A607" s="2">
+        <v>12</v>
+      </c>
       <c r="B607" s="3" t="s">
         <v>221</v>
       </c>
@@ -13673,7 +14885,9 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A608" s="2"/>
+      <c r="A608" s="2">
+        <v>12</v>
+      </c>
       <c r="B608" s="3" t="s">
         <v>221</v>
       </c>
@@ -13691,7 +14905,9 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A609" s="2"/>
+      <c r="A609" s="2">
+        <v>12</v>
+      </c>
       <c r="B609" s="3" t="s">
         <v>221</v>
       </c>
@@ -13709,7 +14925,9 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A610" s="2"/>
+      <c r="A610" s="2">
+        <v>12</v>
+      </c>
       <c r="B610" s="3" t="s">
         <v>221</v>
       </c>
@@ -13727,7 +14945,9 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A611" s="2"/>
+      <c r="A611" s="2">
+        <v>12</v>
+      </c>
       <c r="B611" s="3" t="s">
         <v>221</v>
       </c>
@@ -13745,7 +14965,9 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A612" s="2"/>
+      <c r="A612" s="2">
+        <v>12</v>
+      </c>
       <c r="B612" s="3" t="s">
         <v>226</v>
       </c>
@@ -13763,7 +14985,9 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A613" s="2"/>
+      <c r="A613" s="2">
+        <v>12</v>
+      </c>
       <c r="B613" s="3" t="s">
         <v>226</v>
       </c>
@@ -13781,7 +15005,9 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A614" s="2"/>
+      <c r="A614" s="2">
+        <v>12</v>
+      </c>
       <c r="B614" s="3" t="s">
         <v>226</v>
       </c>
@@ -13799,7 +15025,9 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A615" s="2"/>
+      <c r="A615" s="2">
+        <v>12</v>
+      </c>
       <c r="B615" s="3" t="s">
         <v>226</v>
       </c>
@@ -13817,7 +15045,9 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A616" s="2"/>
+      <c r="A616" s="2">
+        <v>12</v>
+      </c>
       <c r="B616" s="3" t="s">
         <v>226</v>
       </c>
@@ -13835,7 +15065,9 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A617" s="2"/>
+      <c r="A617" s="2">
+        <v>12</v>
+      </c>
       <c r="B617" s="3" t="s">
         <v>226</v>
       </c>
@@ -13853,7 +15085,9 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A618" s="2"/>
+      <c r="A618" s="2">
+        <v>12</v>
+      </c>
       <c r="B618" s="3" t="s">
         <v>226</v>
       </c>
@@ -13871,7 +15105,9 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A619" s="2"/>
+      <c r="A619" s="2">
+        <v>12</v>
+      </c>
       <c r="B619" s="3" t="s">
         <v>226</v>
       </c>
@@ -13889,7 +15125,9 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A620" s="2"/>
+      <c r="A620" s="2">
+        <v>12</v>
+      </c>
       <c r="B620" s="3" t="s">
         <v>226</v>
       </c>
@@ -13907,7 +15145,9 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A621" s="2"/>
+      <c r="A621" s="2">
+        <v>12</v>
+      </c>
       <c r="B621" s="3" t="s">
         <v>226</v>
       </c>
@@ -13925,7 +15165,9 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A622" s="2"/>
+      <c r="A622" s="2">
+        <v>12</v>
+      </c>
       <c r="B622" s="3" t="s">
         <v>226</v>
       </c>
@@ -13943,7 +15185,9 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A623" s="2"/>
+      <c r="A623" s="2">
+        <v>12</v>
+      </c>
       <c r="B623" s="3" t="s">
         <v>226</v>
       </c>
@@ -13961,7 +15205,9 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A624" s="2"/>
+      <c r="A624" s="2">
+        <v>12</v>
+      </c>
       <c r="B624" s="3" t="s">
         <v>226</v>
       </c>
@@ -13979,7 +15225,9 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A625" s="2"/>
+      <c r="A625" s="2">
+        <v>12</v>
+      </c>
       <c r="B625" s="3" t="s">
         <v>226</v>
       </c>
@@ -13997,7 +15245,9 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A626" s="2"/>
+      <c r="A626" s="2">
+        <v>12</v>
+      </c>
       <c r="B626" s="3" t="s">
         <v>241</v>
       </c>
@@ -14015,7 +15265,9 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A627" s="2"/>
+      <c r="A627" s="2">
+        <v>12</v>
+      </c>
       <c r="B627" s="3" t="s">
         <v>241</v>
       </c>
@@ -14033,7 +15285,9 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A628" s="2"/>
+      <c r="A628" s="2">
+        <v>12</v>
+      </c>
       <c r="B628" s="3" t="s">
         <v>241</v>
       </c>
@@ -14051,7 +15305,9 @@
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A629" s="2"/>
+      <c r="A629" s="2">
+        <v>12</v>
+      </c>
       <c r="B629" s="3" t="s">
         <v>241</v>
       </c>
@@ -14069,7 +15325,9 @@
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A630" s="2"/>
+      <c r="A630" s="2">
+        <v>12</v>
+      </c>
       <c r="B630" s="3" t="s">
         <v>241</v>
       </c>
@@ -14087,7 +15345,9 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A631" s="2"/>
+      <c r="A631" s="2">
+        <v>12</v>
+      </c>
       <c r="B631" s="3" t="s">
         <v>241</v>
       </c>
@@ -14105,7 +15365,9 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A632" s="2"/>
+      <c r="A632" s="2">
+        <v>13</v>
+      </c>
       <c r="B632" s="3" t="s">
         <v>306</v>
       </c>
@@ -14123,7 +15385,9 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A633" s="2"/>
+      <c r="A633" s="2">
+        <v>13</v>
+      </c>
       <c r="B633" s="3" t="s">
         <v>306</v>
       </c>
@@ -14141,7 +15405,9 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A634" s="2"/>
+      <c r="A634" s="2">
+        <v>13</v>
+      </c>
       <c r="B634" s="3" t="s">
         <v>306</v>
       </c>
@@ -14159,7 +15425,9 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A635" s="2"/>
+      <c r="A635" s="2">
+        <v>13</v>
+      </c>
       <c r="B635" s="3" t="s">
         <v>306</v>
       </c>
@@ -14177,7 +15445,9 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A636" s="2"/>
+      <c r="A636" s="2">
+        <v>13</v>
+      </c>
       <c r="B636" s="3" t="s">
         <v>306</v>
       </c>
@@ -14195,7 +15465,9 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A637" s="2"/>
+      <c r="A637" s="2">
+        <v>13</v>
+      </c>
       <c r="B637" s="3" t="s">
         <v>306</v>
       </c>
@@ -14213,7 +15485,9 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A638" s="2"/>
+      <c r="A638" s="2">
+        <v>13</v>
+      </c>
       <c r="B638" s="3" t="s">
         <v>306</v>
       </c>
@@ -14231,7 +15505,9 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A639" s="2"/>
+      <c r="A639" s="2">
+        <v>13</v>
+      </c>
       <c r="B639" s="3" t="s">
         <v>306</v>
       </c>
@@ -14249,7 +15525,9 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A640" s="2"/>
+      <c r="A640" s="2">
+        <v>13</v>
+      </c>
       <c r="B640" s="3" t="s">
         <v>316</v>
       </c>
@@ -14267,7 +15545,9 @@
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A641" s="2"/>
+      <c r="A641" s="2">
+        <v>13</v>
+      </c>
       <c r="B641" s="3" t="s">
         <v>316</v>
       </c>
@@ -14285,7 +15565,9 @@
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A642" s="2"/>
+      <c r="A642" s="2">
+        <v>13</v>
+      </c>
       <c r="B642" s="3" t="s">
         <v>316</v>
       </c>
@@ -14303,7 +15585,9 @@
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A643" s="2"/>
+      <c r="A643" s="2">
+        <v>13</v>
+      </c>
       <c r="B643" s="3" t="s">
         <v>316</v>
       </c>
@@ -14321,7 +15605,9 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A644" s="2"/>
+      <c r="A644" s="2">
+        <v>13</v>
+      </c>
       <c r="B644" s="3" t="s">
         <v>316</v>
       </c>
@@ -14339,7 +15625,9 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A645" s="2"/>
+      <c r="A645" s="2">
+        <v>13</v>
+      </c>
       <c r="B645" s="3" t="s">
         <v>316</v>
       </c>
@@ -14357,7 +15645,9 @@
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A646" s="2"/>
+      <c r="A646" s="2">
+        <v>13</v>
+      </c>
       <c r="B646" s="3" t="s">
         <v>316</v>
       </c>
@@ -14375,7 +15665,9 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A647" s="2"/>
+      <c r="A647" s="2">
+        <v>13</v>
+      </c>
       <c r="B647" s="3" t="s">
         <v>316</v>
       </c>
@@ -14393,7 +15685,9 @@
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A648" s="2"/>
+      <c r="A648" s="2">
+        <v>13</v>
+      </c>
       <c r="B648" s="3" t="s">
         <v>316</v>
       </c>
@@ -14411,7 +15705,9 @@
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A649" s="2"/>
+      <c r="A649" s="2">
+        <v>13</v>
+      </c>
       <c r="B649" s="3" t="s">
         <v>316</v>
       </c>
@@ -14429,7 +15725,9 @@
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A650" s="2"/>
+      <c r="A650" s="2">
+        <v>13</v>
+      </c>
       <c r="B650" s="3" t="s">
         <v>316</v>
       </c>
@@ -14447,7 +15745,9 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A651" s="2"/>
+      <c r="A651" s="2">
+        <v>13</v>
+      </c>
       <c r="B651" s="3" t="s">
         <v>316</v>
       </c>
@@ -14465,7 +15765,9 @@
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A652" s="2"/>
+      <c r="A652" s="2">
+        <v>13</v>
+      </c>
       <c r="B652" s="3" t="s">
         <v>316</v>
       </c>
@@ -14483,7 +15785,9 @@
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A653" s="2"/>
+      <c r="A653" s="2">
+        <v>13</v>
+      </c>
       <c r="B653" s="3" t="s">
         <v>316</v>
       </c>
@@ -14501,7 +15805,9 @@
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A654" s="2"/>
+      <c r="A654" s="2">
+        <v>13</v>
+      </c>
       <c r="B654" s="3" t="s">
         <v>316</v>
       </c>
@@ -14519,7 +15825,9 @@
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A655" s="2"/>
+      <c r="A655" s="2">
+        <v>13</v>
+      </c>
       <c r="B655" s="3" t="s">
         <v>316</v>
       </c>
@@ -14537,7 +15845,9 @@
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A656" s="2"/>
+      <c r="A656" s="2">
+        <v>13</v>
+      </c>
       <c r="B656" s="3" t="s">
         <v>316</v>
       </c>
@@ -14555,7 +15865,9 @@
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A657" s="2"/>
+      <c r="A657" s="2">
+        <v>13</v>
+      </c>
       <c r="B657" s="3" t="s">
         <v>316</v>
       </c>
@@ -14573,7 +15885,9 @@
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A658" s="2"/>
+      <c r="A658" s="2">
+        <v>13</v>
+      </c>
       <c r="B658" s="3" t="s">
         <v>316</v>
       </c>
@@ -14591,7 +15905,9 @@
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A659" s="2"/>
+      <c r="A659" s="2">
+        <v>13</v>
+      </c>
       <c r="B659" s="3" t="s">
         <v>316</v>
       </c>
@@ -14609,7 +15925,9 @@
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A660" s="2"/>
+      <c r="A660" s="2">
+        <v>13</v>
+      </c>
       <c r="B660" s="3" t="s">
         <v>316</v>
       </c>
@@ -14627,7 +15945,9 @@
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A661" s="2"/>
+      <c r="A661" s="2">
+        <v>13</v>
+      </c>
       <c r="B661" s="3" t="s">
         <v>316</v>
       </c>
@@ -14645,7 +15965,9 @@
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A662" s="2"/>
+      <c r="A662" s="2">
+        <v>13</v>
+      </c>
       <c r="B662" s="3" t="s">
         <v>316</v>
       </c>
@@ -14663,7 +15985,9 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A663" s="2"/>
+      <c r="A663" s="2">
+        <v>13</v>
+      </c>
       <c r="B663" s="3" t="s">
         <v>316</v>
       </c>
@@ -14681,7 +16005,9 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A664" s="2"/>
+      <c r="A664" s="2">
+        <v>13</v>
+      </c>
       <c r="B664" s="3" t="s">
         <v>316</v>
       </c>
@@ -14699,7 +16025,9 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A665" s="2"/>
+      <c r="A665" s="2">
+        <v>13</v>
+      </c>
       <c r="B665" s="3" t="s">
         <v>316</v>
       </c>
@@ -14717,7 +16045,9 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A666" s="2"/>
+      <c r="A666" s="2">
+        <v>13</v>
+      </c>
       <c r="B666" s="3" t="s">
         <v>316</v>
       </c>
@@ -14735,7 +16065,9 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A667" s="2"/>
+      <c r="A667" s="2">
+        <v>13</v>
+      </c>
       <c r="B667" s="3" t="s">
         <v>316</v>
       </c>
@@ -14753,7 +16085,9 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A668" s="2"/>
+      <c r="A668" s="2">
+        <v>13</v>
+      </c>
       <c r="B668" s="3" t="s">
         <v>316</v>
       </c>
@@ -14771,7 +16105,9 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A669" s="2"/>
+      <c r="A669" s="2">
+        <v>13</v>
+      </c>
       <c r="B669" s="3" t="s">
         <v>316</v>
       </c>
@@ -14789,7 +16125,9 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A670" s="2"/>
+      <c r="A670" s="2">
+        <v>13</v>
+      </c>
       <c r="B670" s="3" t="s">
         <v>316</v>
       </c>
@@ -14807,7 +16145,9 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A671" s="2"/>
+      <c r="A671" s="2">
+        <v>13</v>
+      </c>
       <c r="B671" s="3" t="s">
         <v>316</v>
       </c>
@@ -14825,7 +16165,9 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A672" s="2"/>
+      <c r="A672" s="2">
+        <v>13</v>
+      </c>
       <c r="B672" s="3" t="s">
         <v>316</v>
       </c>
@@ -14843,7 +16185,9 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A673" s="2"/>
+      <c r="A673" s="2">
+        <v>13</v>
+      </c>
       <c r="B673" s="3" t="s">
         <v>332</v>
       </c>
@@ -14861,7 +16205,9 @@
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A674" s="2"/>
+      <c r="A674" s="2">
+        <v>14</v>
+      </c>
       <c r="B674" s="3" t="s">
         <v>334</v>
       </c>
@@ -14879,7 +16225,9 @@
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A675" s="2"/>
+      <c r="A675" s="2">
+        <v>14</v>
+      </c>
       <c r="B675" s="3" t="s">
         <v>334</v>
       </c>
@@ -14897,7 +16245,9 @@
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A676" s="2"/>
+      <c r="A676" s="2">
+        <v>14</v>
+      </c>
       <c r="B676" s="3" t="s">
         <v>334</v>
       </c>
@@ -14915,7 +16265,9 @@
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A677" s="2"/>
+      <c r="A677" s="2">
+        <v>14</v>
+      </c>
       <c r="B677" s="3" t="s">
         <v>334</v>
       </c>
@@ -14933,7 +16285,9 @@
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A678" s="2"/>
+      <c r="A678" s="2">
+        <v>14</v>
+      </c>
       <c r="B678" s="3" t="s">
         <v>334</v>
       </c>
@@ -14951,7 +16305,9 @@
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A679" s="2"/>
+      <c r="A679" s="2">
+        <v>14</v>
+      </c>
       <c r="B679" s="3" t="s">
         <v>334</v>
       </c>
@@ -14969,7 +16325,9 @@
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A680" s="2"/>
+      <c r="A680" s="2">
+        <v>14</v>
+      </c>
       <c r="B680" s="3" t="s">
         <v>334</v>
       </c>
@@ -14987,7 +16345,9 @@
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A681" s="2"/>
+      <c r="A681" s="2">
+        <v>14</v>
+      </c>
       <c r="B681" s="3" t="s">
         <v>334</v>
       </c>
@@ -15005,7 +16365,9 @@
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A682" s="2"/>
+      <c r="A682" s="2">
+        <v>14</v>
+      </c>
       <c r="B682" s="3" t="s">
         <v>334</v>
       </c>
@@ -15023,7 +16385,9 @@
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A683" s="2"/>
+      <c r="A683" s="2">
+        <v>14</v>
+      </c>
       <c r="B683" s="3" t="s">
         <v>334</v>
       </c>
@@ -15041,7 +16405,9 @@
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A684" s="2"/>
+      <c r="A684" s="2">
+        <v>14</v>
+      </c>
       <c r="B684" s="3" t="s">
         <v>334</v>
       </c>
@@ -15059,7 +16425,9 @@
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A685" s="2"/>
+      <c r="A685" s="2">
+        <v>14</v>
+      </c>
       <c r="B685" s="3" t="s">
         <v>343</v>
       </c>
@@ -15077,7 +16445,9 @@
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A686" s="2"/>
+      <c r="A686" s="2">
+        <v>14</v>
+      </c>
       <c r="B686" s="3" t="s">
         <v>343</v>
       </c>
@@ -15095,7 +16465,9 @@
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A687" s="2"/>
+      <c r="A687" s="2">
+        <v>14</v>
+      </c>
       <c r="B687" s="3" t="s">
         <v>343</v>
       </c>
@@ -15113,7 +16485,9 @@
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A688" s="2"/>
+      <c r="A688" s="2">
+        <v>14</v>
+      </c>
       <c r="B688" s="3" t="s">
         <v>343</v>
       </c>
@@ -15131,7 +16505,9 @@
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A689" s="2"/>
+      <c r="A689" s="2">
+        <v>14</v>
+      </c>
       <c r="B689" s="3" t="s">
         <v>343</v>
       </c>
@@ -15149,7 +16525,9 @@
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A690" s="2"/>
+      <c r="A690" s="2">
+        <v>14</v>
+      </c>
       <c r="B690" s="3" t="s">
         <v>343</v>
       </c>
@@ -15167,7 +16545,9 @@
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A691" s="2"/>
+      <c r="A691" s="2">
+        <v>14</v>
+      </c>
       <c r="B691" s="3" t="s">
         <v>352</v>
       </c>
@@ -15185,7 +16565,9 @@
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A692" s="2"/>
+      <c r="A692" s="2">
+        <v>14</v>
+      </c>
       <c r="B692" s="3" t="s">
         <v>352</v>
       </c>
@@ -15203,7 +16585,9 @@
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A693" s="2"/>
+      <c r="A693" s="2">
+        <v>14</v>
+      </c>
       <c r="B693" s="3" t="s">
         <v>355</v>
       </c>
@@ -15221,7 +16605,9 @@
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A694" s="2"/>
+      <c r="A694" s="2">
+        <v>14</v>
+      </c>
       <c r="B694" s="3" t="s">
         <v>355</v>
       </c>
@@ -15239,7 +16625,9 @@
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A695" s="2"/>
+      <c r="A695" s="2">
+        <v>14</v>
+      </c>
       <c r="B695" s="3" t="s">
         <v>355</v>
       </c>
@@ -15257,7 +16645,9 @@
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A696" s="2"/>
+      <c r="A696" s="2">
+        <v>14</v>
+      </c>
       <c r="B696" s="3" t="s">
         <v>355</v>
       </c>
@@ -15275,7 +16665,9 @@
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A697" s="2"/>
+      <c r="A697" s="2">
+        <v>14</v>
+      </c>
       <c r="B697" s="3" t="s">
         <v>355</v>
       </c>
@@ -15293,7 +16685,9 @@
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A698" s="2"/>
+      <c r="A698" s="2">
+        <v>14</v>
+      </c>
       <c r="B698" s="3" t="s">
         <v>355</v>
       </c>
@@ -15311,7 +16705,9 @@
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A699" s="2"/>
+      <c r="A699" s="2">
+        <v>14</v>
+      </c>
       <c r="B699" s="3" t="s">
         <v>355</v>
       </c>
@@ -15329,7 +16725,9 @@
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A700" s="2"/>
+      <c r="A700" s="2">
+        <v>14</v>
+      </c>
       <c r="B700" s="3" t="s">
         <v>355</v>
       </c>
@@ -15347,7 +16745,9 @@
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A701" s="2"/>
+      <c r="A701" s="2">
+        <v>14</v>
+      </c>
       <c r="B701" s="3" t="s">
         <v>355</v>
       </c>
@@ -15365,7 +16765,9 @@
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A702" s="2"/>
+      <c r="A702" s="2">
+        <v>14</v>
+      </c>
       <c r="B702" s="3" t="s">
         <v>355</v>
       </c>
@@ -15383,7 +16785,9 @@
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A703" s="2"/>
+      <c r="A703" s="2">
+        <v>14</v>
+      </c>
       <c r="B703" s="3" t="s">
         <v>355</v>
       </c>
@@ -15401,7 +16805,9 @@
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A704" s="2"/>
+      <c r="A704" s="2">
+        <v>15</v>
+      </c>
       <c r="B704" s="3" t="s">
         <v>367</v>
       </c>
@@ -15419,7 +16825,9 @@
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A705" s="2"/>
+      <c r="A705" s="2">
+        <v>15</v>
+      </c>
       <c r="B705" s="3" t="s">
         <v>367</v>
       </c>
@@ -15437,7 +16845,9 @@
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A706" s="2"/>
+      <c r="A706" s="2">
+        <v>15</v>
+      </c>
       <c r="B706" s="3" t="s">
         <v>367</v>
       </c>
@@ -15455,7 +16865,9 @@
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A707" s="2"/>
+      <c r="A707" s="2">
+        <v>15</v>
+      </c>
       <c r="B707" s="3" t="s">
         <v>367</v>
       </c>
@@ -15473,7 +16885,9 @@
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A708" s="2"/>
+      <c r="A708" s="2">
+        <v>15</v>
+      </c>
       <c r="B708" s="3" t="s">
         <v>367</v>
       </c>
@@ -15491,7 +16905,9 @@
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A709" s="2"/>
+      <c r="A709" s="2">
+        <v>15</v>
+      </c>
       <c r="B709" s="3" t="s">
         <v>367</v>
       </c>
@@ -15509,7 +16925,9 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A710" s="2"/>
+      <c r="A710" s="2">
+        <v>15</v>
+      </c>
       <c r="B710" s="3" t="s">
         <v>367</v>
       </c>
@@ -15527,7 +16945,9 @@
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A711" s="2"/>
+      <c r="A711" s="2">
+        <v>15</v>
+      </c>
       <c r="B711" s="3" t="s">
         <v>367</v>
       </c>
@@ -15545,7 +16965,9 @@
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A712" s="2"/>
+      <c r="A712" s="2">
+        <v>15</v>
+      </c>
       <c r="B712" s="3" t="s">
         <v>367</v>
       </c>
@@ -15563,7 +16985,9 @@
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A713" s="2"/>
+      <c r="A713" s="2">
+        <v>15</v>
+      </c>
       <c r="B713" s="3" t="s">
         <v>367</v>
       </c>
@@ -15581,7 +17005,9 @@
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A714" s="2"/>
+      <c r="A714" s="2">
+        <v>15</v>
+      </c>
       <c r="B714" s="3" t="s">
         <v>367</v>
       </c>
@@ -15599,7 +17025,9 @@
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A715" s="2"/>
+      <c r="A715" s="2">
+        <v>15</v>
+      </c>
       <c r="B715" s="3" t="s">
         <v>367</v>
       </c>
@@ -15617,7 +17045,9 @@
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A716" s="2"/>
+      <c r="A716" s="2">
+        <v>15</v>
+      </c>
       <c r="B716" s="3" t="s">
         <v>380</v>
       </c>
@@ -15635,7 +17065,9 @@
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A717" s="2"/>
+      <c r="A717" s="2">
+        <v>15</v>
+      </c>
       <c r="B717" s="3" t="s">
         <v>380</v>
       </c>
@@ -15653,7 +17085,9 @@
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A718" s="2"/>
+      <c r="A718" s="2">
+        <v>15</v>
+      </c>
       <c r="B718" s="3" t="s">
         <v>380</v>
       </c>
@@ -15671,7 +17105,9 @@
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A719" s="2"/>
+      <c r="A719" s="2">
+        <v>15</v>
+      </c>
       <c r="B719" s="3" t="s">
         <v>380</v>
       </c>
@@ -15689,7 +17125,9 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A720" s="2"/>
+      <c r="A720" s="2">
+        <v>15</v>
+      </c>
       <c r="B720" s="3" t="s">
         <v>380</v>
       </c>
@@ -15707,7 +17145,9 @@
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A721" s="2"/>
+      <c r="A721" s="2">
+        <v>15</v>
+      </c>
       <c r="B721" s="3" t="s">
         <v>380</v>
       </c>
@@ -15725,7 +17165,9 @@
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A722" s="2"/>
+      <c r="A722" s="2">
+        <v>15</v>
+      </c>
       <c r="B722" s="3" t="s">
         <v>380</v>
       </c>
@@ -15743,7 +17185,9 @@
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A723" s="2"/>
+      <c r="A723" s="2">
+        <v>15</v>
+      </c>
       <c r="B723" s="3" t="s">
         <v>380</v>
       </c>
@@ -15761,7 +17205,9 @@
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A724" s="2"/>
+      <c r="A724" s="2">
+        <v>15</v>
+      </c>
       <c r="B724" s="3" t="s">
         <v>380</v>
       </c>
@@ -15779,7 +17225,9 @@
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A725" s="2"/>
+      <c r="A725" s="2">
+        <v>15</v>
+      </c>
       <c r="B725" s="3" t="s">
         <v>380</v>
       </c>
@@ -15797,7 +17245,9 @@
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A726" s="2"/>
+      <c r="A726" s="2">
+        <v>15</v>
+      </c>
       <c r="B726" s="3" t="s">
         <v>380</v>
       </c>
@@ -15815,7 +17265,9 @@
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A727" s="2"/>
+      <c r="A727" s="2">
+        <v>15</v>
+      </c>
       <c r="B727" s="3" t="s">
         <v>380</v>
       </c>
@@ -15833,7 +17285,9 @@
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A728" s="2"/>
+      <c r="A728" s="2">
+        <v>15</v>
+      </c>
       <c r="B728" s="3" t="s">
         <v>384</v>
       </c>
@@ -15851,7 +17305,9 @@
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A729" s="2"/>
+      <c r="A729" s="2">
+        <v>15</v>
+      </c>
       <c r="B729" s="3" t="s">
         <v>384</v>
       </c>
@@ -15869,7 +17325,9 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A730" s="2"/>
+      <c r="A730" s="2">
+        <v>15</v>
+      </c>
       <c r="B730" s="3" t="s">
         <v>384</v>
       </c>
@@ -15887,7 +17345,9 @@
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A731" s="2"/>
+      <c r="A731" s="2">
+        <v>15</v>
+      </c>
       <c r="B731" s="3" t="s">
         <v>384</v>
       </c>
@@ -15905,7 +17365,9 @@
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A732" s="2"/>
+      <c r="A732" s="2">
+        <v>15</v>
+      </c>
       <c r="B732" s="3" t="s">
         <v>384</v>
       </c>
@@ -15923,7 +17385,9 @@
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A733" s="2"/>
+      <c r="A733" s="2">
+        <v>15</v>
+      </c>
       <c r="B733" s="3" t="s">
         <v>384</v>
       </c>
@@ -15941,7 +17405,9 @@
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A734" s="2"/>
+      <c r="A734" s="2">
+        <v>15</v>
+      </c>
       <c r="B734" s="3" t="s">
         <v>384</v>
       </c>
@@ -15959,7 +17425,9 @@
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A735" s="2"/>
+      <c r="A735" s="2">
+        <v>15</v>
+      </c>
       <c r="B735" s="3" t="s">
         <v>384</v>
       </c>
@@ -15977,7 +17445,9 @@
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A736" s="2"/>
+      <c r="A736" s="2">
+        <v>15</v>
+      </c>
       <c r="B736" s="3" t="s">
         <v>390</v>
       </c>
@@ -15995,7 +17465,9 @@
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A737" s="2"/>
+      <c r="A737" s="2">
+        <v>15</v>
+      </c>
       <c r="B737" s="3" t="s">
         <v>390</v>
       </c>
@@ -16013,7 +17485,9 @@
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A738" s="2"/>
+      <c r="A738" s="2">
+        <v>15</v>
+      </c>
       <c r="B738" s="3" t="s">
         <v>390</v>
       </c>
@@ -16031,7 +17505,9 @@
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A739" s="2"/>
+      <c r="A739" s="2">
+        <v>15</v>
+      </c>
       <c r="B739" s="3" t="s">
         <v>390</v>
       </c>
@@ -16049,7 +17525,9 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A740" s="2"/>
+      <c r="A740" s="2">
+        <v>15</v>
+      </c>
       <c r="B740" s="3" t="s">
         <v>390</v>
       </c>
@@ -16067,7 +17545,9 @@
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A741" s="2"/>
+      <c r="A741" s="2">
+        <v>15</v>
+      </c>
       <c r="B741" s="3" t="s">
         <v>390</v>
       </c>
@@ -16085,7 +17565,9 @@
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A742" s="2"/>
+      <c r="A742" s="2">
+        <v>15</v>
+      </c>
       <c r="B742" s="3" t="s">
         <v>390</v>
       </c>
@@ -16103,7 +17585,9 @@
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A743" s="2"/>
+      <c r="A743" s="2">
+        <v>15</v>
+      </c>
       <c r="B743" s="3" t="s">
         <v>390</v>
       </c>
@@ -16121,7 +17605,9 @@
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A744" s="2"/>
+      <c r="A744" s="2">
+        <v>15</v>
+      </c>
       <c r="B744" s="3" t="s">
         <v>390</v>
       </c>
@@ -16139,7 +17625,9 @@
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A745" s="2"/>
+      <c r="A745" s="2">
+        <v>15</v>
+      </c>
       <c r="B745" s="3" t="s">
         <v>390</v>
       </c>
@@ -16157,7 +17645,9 @@
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A746" s="2"/>
+      <c r="A746" s="2">
+        <v>15</v>
+      </c>
       <c r="B746" s="3" t="s">
         <v>390</v>
       </c>
@@ -16175,7 +17665,9 @@
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A747" s="2"/>
+      <c r="A747" s="2">
+        <v>46</v>
+      </c>
       <c r="B747" s="3" t="s">
         <v>249</v>
       </c>
@@ -16193,7 +17685,9 @@
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A748" s="2"/>
+      <c r="A748" s="2">
+        <v>46</v>
+      </c>
       <c r="B748" s="3" t="s">
         <v>270</v>
       </c>
@@ -16211,7 +17705,9 @@
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A749" s="2"/>
+      <c r="A749" s="2">
+        <v>46</v>
+      </c>
       <c r="B749" s="3" t="s">
         <v>270</v>
       </c>
@@ -16229,7 +17725,9 @@
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A750" s="2"/>
+      <c r="A750" s="2">
+        <v>46</v>
+      </c>
       <c r="B750" s="3" t="s">
         <v>270</v>
       </c>
@@ -16247,7 +17745,9 @@
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A751" s="2"/>
+      <c r="A751" s="2">
+        <v>46</v>
+      </c>
       <c r="B751" s="3" t="s">
         <v>270</v>
       </c>
@@ -16265,7 +17765,9 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A752" s="2"/>
+      <c r="A752" s="2">
+        <v>46</v>
+      </c>
       <c r="B752" s="3" t="s">
         <v>270</v>
       </c>
@@ -16283,7 +17785,9 @@
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A753" s="2"/>
+      <c r="A753" s="2">
+        <v>46</v>
+      </c>
       <c r="B753" s="3" t="s">
         <v>270</v>
       </c>
@@ -16301,7 +17805,9 @@
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A754" s="2"/>
+      <c r="A754" s="2">
+        <v>46</v>
+      </c>
       <c r="B754" s="3" t="s">
         <v>270</v>
       </c>
@@ -16319,7 +17825,9 @@
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A755" s="2"/>
+      <c r="A755" s="2">
+        <v>46</v>
+      </c>
       <c r="B755" s="3" t="s">
         <v>281</v>
       </c>
@@ -16337,7 +17845,9 @@
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A756" s="2"/>
+      <c r="A756" s="2">
+        <v>46</v>
+      </c>
       <c r="B756" s="3" t="s">
         <v>281</v>
       </c>
@@ -16355,7 +17865,9 @@
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A757" s="2"/>
+      <c r="A757" s="2">
+        <v>46</v>
+      </c>
       <c r="B757" s="3" t="s">
         <v>281</v>
       </c>
@@ -16373,7 +17885,9 @@
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A758" s="2"/>
+      <c r="A758" s="2">
+        <v>46</v>
+      </c>
       <c r="B758" s="3" t="s">
         <v>281</v>
       </c>
@@ -16391,7 +17905,9 @@
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A759" s="2"/>
+      <c r="A759" s="2">
+        <v>46</v>
+      </c>
       <c r="B759" s="3" t="s">
         <v>281</v>
       </c>
@@ -16409,7 +17925,9 @@
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A760" s="2"/>
+      <c r="A760" s="2">
+        <v>46</v>
+      </c>
       <c r="B760" s="3" t="s">
         <v>281</v>
       </c>
@@ -16427,7 +17945,9 @@
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A761" s="2"/>
+      <c r="A761" s="2">
+        <v>46</v>
+      </c>
       <c r="B761" s="3" t="s">
         <v>281</v>
       </c>
@@ -16445,7 +17965,9 @@
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A762" s="2"/>
+      <c r="A762" s="2">
+        <v>46</v>
+      </c>
       <c r="B762" s="3" t="s">
         <v>281</v>
       </c>
@@ -16463,7 +17985,9 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A763" s="2"/>
+      <c r="A763" s="2">
+        <v>46</v>
+      </c>
       <c r="B763" s="3" t="s">
         <v>281</v>
       </c>
@@ -16481,7 +18005,9 @@
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A764" s="2"/>
+      <c r="A764" s="2">
+        <v>46</v>
+      </c>
       <c r="B764" s="3" t="s">
         <v>281</v>
       </c>
@@ -16499,7 +18025,9 @@
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A765" s="2"/>
+      <c r="A765" s="2">
+        <v>46</v>
+      </c>
       <c r="B765" s="3" t="s">
         <v>281</v>
       </c>
@@ -16517,7 +18045,9 @@
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A766" s="2"/>
+      <c r="A766" s="2">
+        <v>46</v>
+      </c>
       <c r="B766" s="3" t="s">
         <v>281</v>
       </c>
@@ -16535,7 +18065,9 @@
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A767" s="2"/>
+      <c r="A767" s="2">
+        <v>46</v>
+      </c>
       <c r="B767" s="3" t="s">
         <v>281</v>
       </c>
@@ -16553,7 +18085,9 @@
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A768" s="2"/>
+      <c r="A768" s="2">
+        <v>46</v>
+      </c>
       <c r="B768" s="3" t="s">
         <v>281</v>
       </c>
@@ -16571,7 +18105,9 @@
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A769" s="2"/>
+      <c r="A769" s="2">
+        <v>46</v>
+      </c>
       <c r="B769" s="3" t="s">
         <v>281</v>
       </c>
@@ -16589,7 +18125,9 @@
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A770" s="2"/>
+      <c r="A770" s="2">
+        <v>46</v>
+      </c>
       <c r="B770" s="3" t="s">
         <v>281</v>
       </c>
@@ -16607,7 +18145,9 @@
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A771" s="2"/>
+      <c r="A771" s="2">
+        <v>46</v>
+      </c>
       <c r="B771" s="3" t="s">
         <v>281</v>
       </c>
@@ -16625,7 +18165,9 @@
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A772" s="2"/>
+      <c r="A772" s="2">
+        <v>46</v>
+      </c>
       <c r="B772" s="3" t="s">
         <v>281</v>
       </c>
@@ -16643,7 +18185,9 @@
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A773" s="2"/>
+      <c r="A773" s="2">
+        <v>46</v>
+      </c>
       <c r="B773" s="3" t="s">
         <v>281</v>
       </c>
@@ -16661,7 +18205,9 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A774" s="2"/>
+      <c r="A774" s="2">
+        <v>46</v>
+      </c>
       <c r="B774" s="3" t="s">
         <v>281</v>
       </c>
@@ -16679,7 +18225,9 @@
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A775" s="2"/>
+      <c r="A775" s="2">
+        <v>46</v>
+      </c>
       <c r="B775" s="3" t="s">
         <v>281</v>
       </c>
@@ -16697,7 +18245,9 @@
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A776" s="2"/>
+      <c r="A776" s="2">
+        <v>46</v>
+      </c>
       <c r="B776" s="3" t="s">
         <v>281</v>
       </c>
@@ -16715,7 +18265,9 @@
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A777" s="2"/>
+      <c r="A777" s="2">
+        <v>46</v>
+      </c>
       <c r="B777" s="3" t="s">
         <v>300</v>
       </c>
@@ -16733,7 +18285,9 @@
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A778" s="2"/>
+      <c r="A778" s="2">
+        <v>46</v>
+      </c>
       <c r="B778" s="3" t="s">
         <v>300</v>
       </c>
@@ -16751,7 +18305,9 @@
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A779" s="2"/>
+      <c r="A779" s="2">
+        <v>46</v>
+      </c>
       <c r="B779" s="3" t="s">
         <v>300</v>
       </c>
@@ -16769,7 +18325,9 @@
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A780" s="2"/>
+      <c r="A780" s="2">
+        <v>47</v>
+      </c>
       <c r="B780" s="3" t="s">
         <v>409</v>
       </c>
@@ -16787,7 +18345,9 @@
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A781" s="2"/>
+      <c r="A781" s="2">
+        <v>47</v>
+      </c>
       <c r="B781" s="3" t="s">
         <v>409</v>
       </c>
@@ -16805,7 +18365,9 @@
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A782" s="2"/>
+      <c r="A782" s="2">
+        <v>47</v>
+      </c>
       <c r="B782" s="3" t="s">
         <v>409</v>
       </c>
@@ -16823,7 +18385,9 @@
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A783" s="2"/>
+      <c r="A783" s="2">
+        <v>47</v>
+      </c>
       <c r="B783" s="3" t="s">
         <v>409</v>
       </c>
@@ -16841,7 +18405,9 @@
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A784" s="2"/>
+      <c r="A784" s="2">
+        <v>47</v>
+      </c>
       <c r="B784" s="3" t="s">
         <v>409</v>
       </c>
@@ -16859,7 +18425,9 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A785" s="2"/>
+      <c r="A785" s="2">
+        <v>47</v>
+      </c>
       <c r="B785" s="3" t="s">
         <v>409</v>
       </c>
@@ -16877,7 +18445,9 @@
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A786" s="2"/>
+      <c r="A786" s="2">
+        <v>47</v>
+      </c>
       <c r="B786" s="3" t="s">
         <v>409</v>
       </c>
@@ -16895,7 +18465,9 @@
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A787" s="2"/>
+      <c r="A787" s="2">
+        <v>47</v>
+      </c>
       <c r="B787" s="3" t="s">
         <v>409</v>
       </c>
@@ -16913,7 +18485,9 @@
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A788" s="2"/>
+      <c r="A788" s="2">
+        <v>47</v>
+      </c>
       <c r="B788" s="3" t="s">
         <v>429</v>
       </c>
@@ -16931,7 +18505,9 @@
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A789" s="2"/>
+      <c r="A789" s="2">
+        <v>47</v>
+      </c>
       <c r="B789" s="3" t="s">
         <v>429</v>
       </c>
@@ -16949,7 +18525,9 @@
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A790" s="2"/>
+      <c r="A790" s="2">
+        <v>47</v>
+      </c>
       <c r="B790" s="3" t="s">
         <v>429</v>
       </c>
@@ -16967,7 +18545,9 @@
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A791" s="2"/>
+      <c r="A791" s="2">
+        <v>47</v>
+      </c>
       <c r="B791" s="3" t="s">
         <v>429</v>
       </c>
@@ -16985,7 +18565,9 @@
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A792" s="2"/>
+      <c r="A792" s="2">
+        <v>47</v>
+      </c>
       <c r="B792" s="3" t="s">
         <v>429</v>
       </c>
@@ -17003,7 +18585,9 @@
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A793" s="2"/>
+      <c r="A793" s="2">
+        <v>47</v>
+      </c>
       <c r="B793" s="3" t="s">
         <v>429</v>
       </c>
@@ -17021,7 +18605,9 @@
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A794" s="2"/>
+      <c r="A794" s="2">
+        <v>47</v>
+      </c>
       <c r="B794" s="3" t="s">
         <v>429</v>
       </c>
@@ -17039,7 +18625,9 @@
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A795" s="2"/>
+      <c r="A795" s="2">
+        <v>47</v>
+      </c>
       <c r="B795" s="3" t="s">
         <v>429</v>
       </c>
@@ -17057,7 +18645,9 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A796" s="2"/>
+      <c r="A796" s="2">
+        <v>47</v>
+      </c>
       <c r="B796" s="3" t="s">
         <v>429</v>
       </c>
@@ -17075,7 +18665,9 @@
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A797" s="2"/>
+      <c r="A797" s="2">
+        <v>47</v>
+      </c>
       <c r="B797" s="3" t="s">
         <v>429</v>
       </c>
@@ -17093,7 +18685,9 @@
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A798" s="2"/>
+      <c r="A798" s="2">
+        <v>47</v>
+      </c>
       <c r="B798" s="3" t="s">
         <v>429</v>
       </c>
@@ -17111,7 +18705,9 @@
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A799" s="2"/>
+      <c r="A799" s="2">
+        <v>47</v>
+      </c>
       <c r="B799" s="3" t="s">
         <v>429</v>
       </c>
@@ -17129,7 +18725,9 @@
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A800" s="2"/>
+      <c r="A800" s="2">
+        <v>47</v>
+      </c>
       <c r="B800" s="3" t="s">
         <v>429</v>
       </c>
@@ -17147,7 +18745,9 @@
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A801" s="2"/>
+      <c r="A801" s="2">
+        <v>47</v>
+      </c>
       <c r="B801" s="3" t="s">
         <v>429</v>
       </c>
@@ -17165,7 +18765,9 @@
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A802" s="2"/>
+      <c r="A802" s="2">
+        <v>47</v>
+      </c>
       <c r="B802" s="3" t="s">
         <v>429</v>
       </c>
@@ -17183,7 +18785,9 @@
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A803" s="2"/>
+      <c r="A803" s="2">
+        <v>47</v>
+      </c>
       <c r="B803" s="3" t="s">
         <v>429</v>
       </c>
@@ -17201,7 +18805,9 @@
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A804" s="2"/>
+      <c r="A804" s="2">
+        <v>47</v>
+      </c>
       <c r="B804" s="3" t="s">
         <v>429</v>
       </c>
@@ -17219,7 +18825,9 @@
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A805" s="2"/>
+      <c r="A805" s="2">
+        <v>47</v>
+      </c>
       <c r="B805" s="3" t="s">
         <v>429</v>
       </c>
@@ -17237,7 +18845,9 @@
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A806" s="2"/>
+      <c r="A806" s="2">
+        <v>47</v>
+      </c>
       <c r="B806" s="3" t="s">
         <v>429</v>
       </c>
@@ -17255,7 +18865,9 @@
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A807" s="2"/>
+      <c r="A807" s="2">
+        <v>47</v>
+      </c>
       <c r="B807" s="3" t="s">
         <v>429</v>
       </c>
@@ -17273,7 +18885,9 @@
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A808" s="2"/>
+      <c r="A808" s="2">
+        <v>47</v>
+      </c>
       <c r="B808" s="3" t="s">
         <v>429</v>
       </c>
@@ -17291,7 +18905,9 @@
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A809" s="2"/>
+      <c r="A809" s="2">
+        <v>47</v>
+      </c>
       <c r="B809" s="3" t="s">
         <v>429</v>
       </c>
@@ -17309,7 +18925,9 @@
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A810" s="2"/>
+      <c r="A810" s="2">
+        <v>47</v>
+      </c>
       <c r="B810" s="3" t="s">
         <v>429</v>
       </c>
@@ -17327,7 +18945,9 @@
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A811" s="2"/>
+      <c r="A811" s="2">
+        <v>47</v>
+      </c>
       <c r="B811" s="3" t="s">
         <v>429</v>
       </c>
